--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3473022.163792354</v>
+        <v>-3474772.73271099</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6661238.247473563</v>
+        <v>6661238.247473551</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279.1418457774241</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>261.680895884951</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>251.0910457346264</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>303.2840498556549</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.9234123546362</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>207.3370702978282</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>41.91180785883439</v>
       </c>
       <c r="T11" t="n">
-        <v>107.3023197792036</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>147.5306706798249</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>224.1602625840784</v>
+        <v>6.662981696813365</v>
       </c>
       <c r="W11" t="n">
-        <v>245.6489728313565</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>266.1391047924125</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>69.05627938021112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.94118776381083</v>
+        <v>62.94118776381077</v>
       </c>
       <c r="C12" t="n">
-        <v>69.11650310225923</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>43.85306967858224</v>
+        <v>43.85306967858219</v>
       </c>
       <c r="E12" t="n">
-        <v>54.05308456934443</v>
+        <v>54.05308456934438</v>
       </c>
       <c r="F12" t="n">
-        <v>41.47721650732737</v>
+        <v>41.47721650732731</v>
       </c>
       <c r="G12" t="n">
-        <v>32.26016863753152</v>
+        <v>32.26016863753146</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>7.563150089057146</v>
       </c>
       <c r="S12" t="n">
-        <v>143.9819499248829</v>
+        <v>40.3899540388263</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1535309938866</v>
+        <v>114.6264030018553</v>
       </c>
       <c r="U12" t="n">
-        <v>146.3161387837062</v>
+        <v>225.8432667757365</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>129.2085912633687</v>
       </c>
       <c r="W12" t="n">
-        <v>148.1029872748631</v>
+        <v>148.102987274863</v>
       </c>
       <c r="X12" t="n">
-        <v>102.180989317421</v>
+        <v>102.1809893174209</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.0906998912479</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.23998429588079</v>
+        <v>76.23998429588073</v>
       </c>
       <c r="C13" t="n">
-        <v>63.65482521257132</v>
+        <v>63.65482521257127</v>
       </c>
       <c r="D13" t="n">
-        <v>45.02347713215585</v>
+        <v>45.02347713215579</v>
       </c>
       <c r="E13" t="n">
-        <v>42.84196676051266</v>
+        <v>42.84196676051261</v>
       </c>
       <c r="F13" t="n">
-        <v>41.82905213687474</v>
+        <v>41.82905213687468</v>
       </c>
       <c r="G13" t="n">
-        <v>63.14868351712474</v>
+        <v>63.14868351712469</v>
       </c>
       <c r="H13" t="n">
-        <v>47.51887338264304</v>
+        <v>47.51887338264298</v>
       </c>
       <c r="I13" t="n">
-        <v>14.25854947703818</v>
+        <v>14.25854947703812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.4833629565446</v>
+        <v>17.48336295654437</v>
       </c>
       <c r="S13" t="n">
-        <v>98.63528383939774</v>
+        <v>98.63528383939769</v>
       </c>
       <c r="T13" t="n">
         <v>119.011402824221</v>
       </c>
       <c r="U13" t="n">
-        <v>182.6588352910561</v>
+        <v>182.6588352910557</v>
       </c>
       <c r="V13" t="n">
-        <v>148.5456474377715</v>
+        <v>148.5456474377714</v>
       </c>
       <c r="W13" t="n">
-        <v>182.9310024505345</v>
+        <v>182.9310024505344</v>
       </c>
       <c r="X13" t="n">
         <v>122.1176595029806</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.9926574660383</v>
+        <v>114.9926574660382</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279.1418457774241</v>
+        <v>279.141845777424</v>
       </c>
       <c r="C14" t="n">
-        <v>261.680895884951</v>
+        <v>261.6808958849509</v>
       </c>
       <c r="D14" t="n">
-        <v>251.0910457346264</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.393463343572876</v>
+        <v>25.50933169471409</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>303.2840498556549</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>207.3370702978282</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.91180785883446</v>
+        <v>41.91180785883439</v>
       </c>
       <c r="T14" t="n">
-        <v>107.3023197792032</v>
+        <v>107.3023197792034</v>
       </c>
       <c r="U14" t="n">
-        <v>147.5306706798249</v>
+        <v>147.5306706798245</v>
       </c>
       <c r="V14" t="n">
-        <v>224.1602625840784</v>
+        <v>224.1602625840783</v>
       </c>
       <c r="W14" t="n">
-        <v>245.6489728313565</v>
+        <v>245.6489728313564</v>
       </c>
       <c r="X14" t="n">
         <v>266.1391047924125</v>
       </c>
       <c r="Y14" t="n">
-        <v>282.6459427699971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>62.94118776381075</v>
       </c>
       <c r="C15" t="n">
-        <v>69.11650310225923</v>
+        <v>69.11650310225914</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1695,13 +1695,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>74.9130600104409</v>
       </c>
       <c r="G15" t="n">
-        <v>32.26016863753152</v>
+        <v>32.26016863753144</v>
       </c>
       <c r="H15" t="n">
-        <v>27.67596504456666</v>
+        <v>97.83211742750973</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.563150089057146</v>
+        <v>7.56315008905716</v>
       </c>
       <c r="S15" t="n">
         <v>143.9819499248829</v>
@@ -1746,7 +1746,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>148.1029872748631</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.23998429588079</v>
+        <v>76.2399842958807</v>
       </c>
       <c r="C16" t="n">
-        <v>63.65482521257132</v>
+        <v>63.65482521257124</v>
       </c>
       <c r="D16" t="n">
-        <v>45.02347713215585</v>
+        <v>45.02347713215576</v>
       </c>
       <c r="E16" t="n">
-        <v>42.84196676051266</v>
+        <v>42.84196676051258</v>
       </c>
       <c r="F16" t="n">
-        <v>41.82905213687474</v>
+        <v>41.82905213687465</v>
       </c>
       <c r="G16" t="n">
-        <v>63.14868351712474</v>
+        <v>63.14868351712466</v>
       </c>
       <c r="H16" t="n">
-        <v>47.51887338264304</v>
+        <v>47.51887338264295</v>
       </c>
       <c r="I16" t="n">
-        <v>14.25854947703818</v>
+        <v>14.2585494770381</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.48336295654434</v>
+        <v>17.48336295654426</v>
       </c>
       <c r="S16" t="n">
-        <v>98.63528383939774</v>
+        <v>98.63528383939766</v>
       </c>
       <c r="T16" t="n">
-        <v>119.0114028242211</v>
+        <v>119.011402824221</v>
       </c>
       <c r="U16" t="n">
-        <v>182.6588352910556</v>
+        <v>182.6588352910555</v>
       </c>
       <c r="V16" t="n">
-        <v>148.5456474377715</v>
+        <v>148.5456474377714</v>
       </c>
       <c r="W16" t="n">
-        <v>182.9310024505345</v>
+        <v>182.9310024505344</v>
       </c>
       <c r="X16" t="n">
         <v>122.1176595029806</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.9926574660383</v>
+        <v>114.9926574660382</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>199.8331492527603</v>
+        <v>199.8331492527602</v>
       </c>
       <c r="C17" t="n">
-        <v>182.3721993602872</v>
+        <v>182.3721993602871</v>
       </c>
       <c r="D17" t="n">
-        <v>171.7823492099626</v>
+        <v>149.2177685386762</v>
       </c>
       <c r="E17" t="n">
-        <v>199.0296776615415</v>
+        <v>199.0296776615414</v>
       </c>
       <c r="F17" t="n">
-        <v>201.4107726597033</v>
+        <v>223.975353330991</v>
       </c>
       <c r="G17" t="n">
-        <v>229.6147158299724</v>
+        <v>229.6147158299723</v>
       </c>
       <c r="H17" t="n">
         <v>128.0283737731644</v>
@@ -1898,19 +1898,19 @@
         <v>27.99362325453958</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22197415516078</v>
+        <v>68.22197415516069</v>
       </c>
       <c r="V17" t="n">
-        <v>144.8515660594146</v>
+        <v>144.8515660594145</v>
       </c>
       <c r="W17" t="n">
-        <v>166.3402763066927</v>
+        <v>166.3402763066926</v>
       </c>
       <c r="X17" t="n">
-        <v>186.8304082677487</v>
+        <v>186.8304082677486</v>
       </c>
       <c r="Y17" t="n">
-        <v>203.3372462453333</v>
+        <v>203.3372462453332</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1923,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>85.2736039261918</v>
       </c>
       <c r="D18" t="n">
-        <v>21.96054739249255</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>97.83211742750973</v>
       </c>
       <c r="I18" t="n">
-        <v>38.04962311002275</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.563150089057146</v>
+        <v>7.56315008905716</v>
       </c>
       <c r="S18" t="n">
         <v>143.9819499248829</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>68.9355866512397</v>
       </c>
       <c r="D19" t="n">
-        <v>10.17896531190329</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S19" t="n">
-        <v>19.32658731473392</v>
+        <v>202.2272797254543</v>
       </c>
       <c r="T19" t="n">
-        <v>222.6033987102776</v>
+        <v>39.70270629955719</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2508311771121</v>
+        <v>103.3501387663917</v>
       </c>
       <c r="V19" t="n">
-        <v>69.23695091310768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>103.6223059258707</v>
+        <v>103.6223059258706</v>
       </c>
       <c r="X19" t="n">
-        <v>42.80896297831683</v>
+        <v>42.80896297831674</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>199.8331492527603</v>
+        <v>199.8331492527602</v>
       </c>
       <c r="C20" t="n">
-        <v>182.3721993602872</v>
+        <v>182.3721993602871</v>
       </c>
       <c r="D20" t="n">
-        <v>171.7823492099626</v>
+        <v>171.7823492099625</v>
       </c>
       <c r="E20" t="n">
-        <v>199.0296776615415</v>
+        <v>199.0296776615414</v>
       </c>
       <c r="F20" t="n">
-        <v>201.4107726597036</v>
+        <v>223.975353330991</v>
       </c>
       <c r="G20" t="n">
-        <v>229.6147158299724</v>
+        <v>229.6147158299723</v>
       </c>
       <c r="H20" t="n">
         <v>128.0283737731644</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>27.99362325453978</v>
+        <v>27.99362325453823</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22197415516078</v>
+        <v>68.22197415516069</v>
       </c>
       <c r="V20" t="n">
-        <v>144.8515660594146</v>
+        <v>144.8515660594145</v>
       </c>
       <c r="W20" t="n">
-        <v>166.3402763066927</v>
+        <v>166.3402763066926</v>
       </c>
       <c r="X20" t="n">
-        <v>186.8304082677487</v>
+        <v>164.2658275964632</v>
       </c>
       <c r="Y20" t="n">
-        <v>203.3372462453333</v>
+        <v>203.3372462453332</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.50237342964856</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>25.46064089830059</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2169,10 +2169,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.563150089057146</v>
+        <v>7.56315008905716</v>
       </c>
       <c r="S21" t="n">
         <v>143.9819499248829</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>67.04132560147002</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.962973278553022</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S22" t="n">
-        <v>19.32658731473392</v>
+        <v>19.32658731473384</v>
       </c>
       <c r="T22" t="n">
-        <v>39.70270629955728</v>
+        <v>39.70270629955719</v>
       </c>
       <c r="U22" t="n">
-        <v>187.9395967297236</v>
+        <v>286.2508311771121</v>
       </c>
       <c r="V22" t="n">
-        <v>69.23695091310768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>103.6223059258707</v>
+        <v>103.6223059258706</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>42.80896297831674</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>35.68396094137438</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>199.8331492527603</v>
+        <v>199.8331492527602</v>
       </c>
       <c r="C23" t="n">
-        <v>182.3721993602872</v>
+        <v>182.3721993602871</v>
       </c>
       <c r="D23" t="n">
-        <v>171.7823492099626</v>
+        <v>171.7823492099625</v>
       </c>
       <c r="E23" t="n">
-        <v>199.0296776615415</v>
+        <v>199.0296776615414</v>
       </c>
       <c r="F23" t="n">
-        <v>223.9753533309911</v>
+        <v>223.975353330991</v>
       </c>
       <c r="G23" t="n">
-        <v>229.6147158299724</v>
+        <v>229.6147158299723</v>
       </c>
       <c r="H23" t="n">
         <v>128.0283737731644</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>27.99362325453978</v>
+        <v>27.9936232545397</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22197415516078</v>
+        <v>68.22197415516069</v>
       </c>
       <c r="V23" t="n">
-        <v>144.8515660594146</v>
+        <v>144.8515660594145</v>
       </c>
       <c r="W23" t="n">
-        <v>166.3402763066927</v>
+        <v>166.3402763066926</v>
       </c>
       <c r="X23" t="n">
-        <v>186.8304082677487</v>
+        <v>186.8304082677486</v>
       </c>
       <c r="Y23" t="n">
-        <v>203.3372462453333</v>
+        <v>203.3372462453332</v>
       </c>
     </row>
     <row r="24">
@@ -2400,22 +2400,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>44.55470407772423</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.852164523588</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.38593497465512</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.563150089057146</v>
+        <v>7.56315008905716</v>
       </c>
       <c r="S24" t="n">
         <v>143.9819499248829</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.2208060437474</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.32658731473392</v>
+        <v>202.2272797254543</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70270629955728</v>
+        <v>39.70270629955719</v>
       </c>
       <c r="U25" t="n">
-        <v>103.3501387663918</v>
+        <v>103.3501387663917</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>69.23695091310759</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>198.1512941013806</v>
       </c>
       <c r="X25" t="n">
-        <v>42.80896297831683</v>
+        <v>42.80896297831674</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.68396094137447</v>
+        <v>35.68396094137438</v>
       </c>
     </row>
     <row r="26">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76666231793703</v>
+        <v>41.76666231793732</v>
       </c>
       <c r="S28" t="n">
         <v>122.9185832007904</v>
@@ -2807,10 +2807,10 @@
         <v>333.206711716029</v>
       </c>
       <c r="H29" t="n">
-        <v>231.620369659221</v>
+        <v>231.6203696592209</v>
       </c>
       <c r="I29" t="n">
-        <v>23.70868119280456</v>
+        <v>23.70868119280458</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.19510722022689</v>
+        <v>66.19510722022719</v>
       </c>
       <c r="T29" t="n">
         <v>131.5856191405963</v>
@@ -2889,7 +2889,7 @@
         <v>97.83211742750973</v>
       </c>
       <c r="I30" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002276</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.563150089057146</v>
+        <v>7.56315008905716</v>
       </c>
       <c r="S30" t="n">
         <v>143.9819499248829</v>
@@ -2962,13 +2962,13 @@
         <v>66.11235149826743</v>
       </c>
       <c r="G31" t="n">
-        <v>87.43198287851743</v>
+        <v>87.43198287851727</v>
       </c>
       <c r="H31" t="n">
-        <v>71.80217274403573</v>
+        <v>71.80217274403574</v>
       </c>
       <c r="I31" t="n">
-        <v>38.54184883843087</v>
+        <v>38.54184883843088</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76666231793703</v>
+        <v>41.76666231793732</v>
       </c>
       <c r="S31" t="n">
         <v>122.9185832007904</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.4251451388168</v>
+        <v>303.4251451388167</v>
       </c>
       <c r="C32" t="n">
-        <v>285.9641952463438</v>
+        <v>285.9641952463437</v>
       </c>
       <c r="D32" t="n">
-        <v>275.3743450960192</v>
+        <v>275.3743450960191</v>
       </c>
       <c r="E32" t="n">
-        <v>302.621673547598</v>
+        <v>302.6216735475979</v>
       </c>
       <c r="F32" t="n">
         <v>327.5673492170476</v>
       </c>
       <c r="G32" t="n">
-        <v>333.206711716029</v>
+        <v>333.2067117160289</v>
       </c>
       <c r="H32" t="n">
-        <v>231.620369659221</v>
+        <v>231.6203696592209</v>
       </c>
       <c r="I32" t="n">
-        <v>23.70868119280458</v>
+        <v>23.70868119280455</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.19510722022689</v>
+        <v>66.19510722022716</v>
       </c>
       <c r="T32" t="n">
-        <v>131.5856191405963</v>
+        <v>131.5856191405957</v>
       </c>
       <c r="U32" t="n">
-        <v>171.8139700412179</v>
+        <v>171.8139700412187</v>
       </c>
       <c r="V32" t="n">
         <v>248.4435619454711</v>
@@ -3095,7 +3095,7 @@
         <v>290.4224041538052</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.9292421313898</v>
+        <v>306.9292421313897</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.83211742750973</v>
       </c>
       <c r="I33" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002276</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.563150089057146</v>
+        <v>7.56315008905716</v>
       </c>
       <c r="S33" t="n">
         <v>143.9819499248829</v>
@@ -3187,25 +3187,25 @@
         <v>100.5232836572735</v>
       </c>
       <c r="C34" t="n">
-        <v>87.93812457396403</v>
+        <v>87.93812457396399</v>
       </c>
       <c r="D34" t="n">
-        <v>69.30677649354855</v>
+        <v>69.30677649354851</v>
       </c>
       <c r="E34" t="n">
-        <v>67.12526612190537</v>
+        <v>67.12526612190533</v>
       </c>
       <c r="F34" t="n">
-        <v>66.11235149826744</v>
+        <v>66.1123514982674</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43198287851745</v>
+        <v>87.4319828785174</v>
       </c>
       <c r="H34" t="n">
-        <v>71.80217274403576</v>
+        <v>71.8021727440357</v>
       </c>
       <c r="I34" t="n">
-        <v>38.54184883843106</v>
+        <v>38.54184883843085</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76666231793705</v>
+        <v>41.76666231793701</v>
       </c>
       <c r="S34" t="n">
-        <v>122.9185832007905</v>
+        <v>122.9185832007904</v>
       </c>
       <c r="T34" t="n">
-        <v>143.2947021856138</v>
+        <v>143.2947021856137</v>
       </c>
       <c r="U34" t="n">
         <v>206.9421346524483</v>
@@ -3250,10 +3250,10 @@
         <v>207.2143018119272</v>
       </c>
       <c r="X34" t="n">
-        <v>146.4009588643734</v>
+        <v>146.4009588643733</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.275956827431</v>
+        <v>139.2759568274309</v>
       </c>
     </row>
     <row r="35">
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>58.48725267606662</v>
+        <v>58.48725267606487</v>
       </c>
       <c r="U35" t="n">
-        <v>98.71560357668656</v>
+        <v>98.71560357668761</v>
       </c>
       <c r="V35" t="n">
         <v>175.3451954809414</v>
@@ -3363,7 +3363,7 @@
         <v>97.83211742750973</v>
       </c>
       <c r="I36" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002276</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.563150089057146</v>
+        <v>7.56315008905716</v>
       </c>
       <c r="S36" t="n">
         <v>143.9819499248829</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>27.42491719274381</v>
       </c>
       <c r="C37" t="n">
         <v>14.83975810943434</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6.475162813014117</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.962973278553022</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.82021673626076</v>
+        <v>202.2272797254543</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6033987102776</v>
+        <v>70.19633572108411</v>
       </c>
       <c r="U37" t="n">
         <v>133.8437681879186</v>
       </c>
       <c r="V37" t="n">
-        <v>99.73058033463451</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>145.5540714389646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>73.30259239984366</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>66.1775903629013</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>230.326778674287</v>
+        <v>230.3267786742869</v>
       </c>
       <c r="C38" t="n">
-        <v>212.865828781814</v>
+        <v>212.8658287818139</v>
       </c>
       <c r="D38" t="n">
-        <v>202.2759786314894</v>
+        <v>202.2759786314893</v>
       </c>
       <c r="E38" t="n">
-        <v>229.5233070830682</v>
+        <v>229.5233070830681</v>
       </c>
       <c r="F38" t="n">
-        <v>254.4689827525179</v>
+        <v>254.4689827525178</v>
       </c>
       <c r="G38" t="n">
         <v>260.1083452514991</v>
       </c>
       <c r="H38" t="n">
-        <v>158.5220031946912</v>
+        <v>158.5220031946911</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>58.48725267606653</v>
+        <v>58.48725267606648</v>
       </c>
       <c r="U38" t="n">
-        <v>98.71560357668753</v>
+        <v>98.71560357668747</v>
       </c>
       <c r="V38" t="n">
         <v>175.3451954809413</v>
@@ -3566,7 +3566,7 @@
         <v>196.8339057282194</v>
       </c>
       <c r="X38" t="n">
-        <v>217.3240376892755</v>
+        <v>217.3240376892754</v>
       </c>
       <c r="Y38" t="n">
         <v>233.83087566686</v>
@@ -3600,7 +3600,7 @@
         <v>97.83211742750973</v>
       </c>
       <c r="I39" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002276</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.563150089057146</v>
+        <v>7.56315008905716</v>
       </c>
       <c r="S39" t="n">
         <v>143.9819499248829</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.42491719274372</v>
+        <v>27.42491719274366</v>
       </c>
       <c r="C40" t="n">
-        <v>14.83975810943426</v>
+        <v>14.8397581094342</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.33361641398768</v>
+        <v>14.33361641398762</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>15.22972606254919</v>
       </c>
       <c r="S40" t="n">
-        <v>202.2272797254543</v>
+        <v>49.82021673626062</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6033987102776</v>
+        <v>70.19633572108397</v>
       </c>
       <c r="U40" t="n">
         <v>133.8437681879185</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>145.5540714389651</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>73.30259239984358</v>
+        <v>73.30259239984352</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.17759036290121</v>
+        <v>66.17759036290116</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.326778674287</v>
+        <v>230.3267786742869</v>
       </c>
       <c r="C41" t="n">
-        <v>212.865828781814</v>
+        <v>212.8658287818139</v>
       </c>
       <c r="D41" t="n">
-        <v>202.2759786314894</v>
+        <v>202.2759786314893</v>
       </c>
       <c r="E41" t="n">
-        <v>229.5233070830682</v>
+        <v>229.5233070830681</v>
       </c>
       <c r="F41" t="n">
-        <v>254.4689827525179</v>
+        <v>254.4689827525178</v>
       </c>
       <c r="G41" t="n">
         <v>260.1083452514991</v>
       </c>
       <c r="H41" t="n">
-        <v>158.5220031946912</v>
+        <v>158.5220031946911</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>58.48725267606667</v>
+        <v>58.48725267606645</v>
       </c>
       <c r="U41" t="n">
-        <v>98.71560357668753</v>
+        <v>98.71560357668744</v>
       </c>
       <c r="V41" t="n">
-        <v>175.3451954809413</v>
+        <v>175.3451954809412</v>
       </c>
       <c r="W41" t="n">
-        <v>196.8339057282194</v>
+        <v>196.8339057282193</v>
       </c>
       <c r="X41" t="n">
-        <v>217.3240376892755</v>
+        <v>217.3240376892754</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.83087566686</v>
+        <v>233.8308756668599</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>97.83211742750973</v>
       </c>
       <c r="I42" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002276</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.563150089057146</v>
+        <v>7.56315008905716</v>
       </c>
       <c r="S42" t="n">
         <v>143.9819499248829</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.42491719274372</v>
+        <v>27.42491719274364</v>
       </c>
       <c r="C43" t="n">
-        <v>14.83975810943426</v>
+        <v>14.83975810943417</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>14.33361641398768</v>
+        <v>32.75776747181813</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.43813609156767</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.2272797254543</v>
+        <v>49.82021673626059</v>
       </c>
       <c r="T43" t="n">
-        <v>70.19633572108403</v>
+        <v>70.19633572108394</v>
       </c>
       <c r="U43" t="n">
-        <v>133.8437681879185</v>
+        <v>133.8437681879184</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>134.1159353473974</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>73.30259239984358</v>
+        <v>73.30259239984349</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>66.17759036290113</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.326778674287</v>
+        <v>230.3267786742869</v>
       </c>
       <c r="C44" t="n">
-        <v>212.865828781814</v>
+        <v>212.8658287818139</v>
       </c>
       <c r="D44" t="n">
-        <v>202.2759786314894</v>
+        <v>202.2759786314893</v>
       </c>
       <c r="E44" t="n">
-        <v>229.5233070830682</v>
+        <v>229.5233070830681</v>
       </c>
       <c r="F44" t="n">
-        <v>254.4689827525179</v>
+        <v>254.4689827525178</v>
       </c>
       <c r="G44" t="n">
         <v>260.1083452514991</v>
       </c>
       <c r="H44" t="n">
-        <v>158.5220031946912</v>
+        <v>158.5220031946911</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>58.48725267606653</v>
+        <v>58.48725267606645</v>
       </c>
       <c r="U44" t="n">
-        <v>98.71560357668753</v>
+        <v>98.71560357668744</v>
       </c>
       <c r="V44" t="n">
-        <v>175.3451954809413</v>
+        <v>175.3451954809412</v>
       </c>
       <c r="W44" t="n">
-        <v>196.8339057282194</v>
+        <v>196.8339057282193</v>
       </c>
       <c r="X44" t="n">
-        <v>217.3240376892755</v>
+        <v>217.3240376892754</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.83087566686</v>
+        <v>233.8308756668599</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>97.83211742750973</v>
       </c>
       <c r="I45" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002276</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.563150089057146</v>
+        <v>7.56315008905716</v>
       </c>
       <c r="S45" t="n">
         <v>143.9819499248829</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.42491719274372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>14.83975810943426</v>
+        <v>33.26390916726485</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>14.33361641398768</v>
+        <v>14.33361641398759</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.59005697442117</v>
+        <v>49.82021673626059</v>
       </c>
       <c r="T46" t="n">
-        <v>70.19633572108403</v>
+        <v>70.19633572108394</v>
       </c>
       <c r="U46" t="n">
-        <v>133.8437681879185</v>
+        <v>286.2508311771121</v>
       </c>
       <c r="V46" t="n">
-        <v>99.73058033463442</v>
+        <v>99.73058033463434</v>
       </c>
       <c r="W46" t="n">
-        <v>134.1159353473974</v>
+        <v>134.1159353473973</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>73.30259239984349</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>66.17759036290113</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.46611551604506</v>
+        <v>1374.240331806648</v>
       </c>
       <c r="C11" t="n">
-        <v>28.46611551604506</v>
+        <v>1109.916194549121</v>
       </c>
       <c r="D11" t="n">
-        <v>28.46611551604506</v>
+        <v>856.2888756252564</v>
       </c>
       <c r="E11" t="n">
-        <v>28.46611551604506</v>
+        <v>856.2888756252564</v>
       </c>
       <c r="F11" t="n">
-        <v>28.46611551604506</v>
+        <v>549.9413505185344</v>
       </c>
       <c r="G11" t="n">
-        <v>28.46611551604506</v>
+        <v>237.8974996552654</v>
       </c>
       <c r="H11" t="n">
-        <v>28.46611551604506</v>
+        <v>28.46611551604503</v>
       </c>
       <c r="I11" t="n">
-        <v>28.46611551604506</v>
+        <v>28.46611551604503</v>
       </c>
       <c r="J11" t="n">
-        <v>83.43604716125765</v>
+        <v>83.43604716125731</v>
       </c>
       <c r="K11" t="n">
-        <v>216.5602434586312</v>
+        <v>216.5602434586303</v>
       </c>
       <c r="L11" t="n">
-        <v>418.6143424701345</v>
+        <v>418.6143424701337</v>
       </c>
       <c r="M11" t="n">
-        <v>675.1078967214449</v>
+        <v>675.1078967214444</v>
       </c>
       <c r="N11" t="n">
-        <v>940.3655932151298</v>
+        <v>940.365593215129</v>
       </c>
       <c r="O11" t="n">
         <v>1177.505652943961</v>
       </c>
       <c r="P11" t="n">
-        <v>1345.398206634379</v>
+        <v>1345.398206634378</v>
       </c>
       <c r="Q11" t="n">
-        <v>1423.305775802253</v>
+        <v>1423.305775802251</v>
       </c>
       <c r="R11" t="n">
-        <v>1423.305775802253</v>
+        <v>1423.305775802251</v>
       </c>
       <c r="S11" t="n">
-        <v>1380.970616348885</v>
+        <v>1380.970616348883</v>
       </c>
       <c r="T11" t="n">
-        <v>1272.58443475373</v>
+        <v>1380.970616348883</v>
       </c>
       <c r="U11" t="n">
-        <v>1123.563555279159</v>
+        <v>1380.970616348883</v>
       </c>
       <c r="V11" t="n">
-        <v>897.1390476184736</v>
+        <v>1374.240331806648</v>
       </c>
       <c r="W11" t="n">
-        <v>649.0087720312448</v>
+        <v>1374.240331806648</v>
       </c>
       <c r="X11" t="n">
-        <v>380.1813934530503</v>
+        <v>1374.240331806648</v>
       </c>
       <c r="Y11" t="n">
-        <v>310.4275758972815</v>
+        <v>1374.240331806648</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>271.6580776322519</v>
+        <v>376.296457315137</v>
       </c>
       <c r="C12" t="n">
-        <v>201.8434280340103</v>
+        <v>201.84342803401</v>
       </c>
       <c r="D12" t="n">
-        <v>157.5473980556444</v>
+        <v>157.5473980556442</v>
       </c>
       <c r="E12" t="n">
-        <v>102.9483227330742</v>
+        <v>102.9483227330741</v>
       </c>
       <c r="F12" t="n">
-        <v>61.05214444284458</v>
+        <v>61.05214444284449</v>
       </c>
       <c r="G12" t="n">
-        <v>28.46611551604506</v>
+        <v>28.46611551604503</v>
       </c>
       <c r="H12" t="n">
-        <v>28.46611551604506</v>
+        <v>28.46611551604503</v>
       </c>
       <c r="I12" t="n">
-        <v>28.46611551604506</v>
+        <v>28.46611551604503</v>
       </c>
       <c r="J12" t="n">
-        <v>42.38798326520923</v>
+        <v>42.3879832652092</v>
       </c>
       <c r="K12" t="n">
         <v>144.3374974159254</v>
@@ -5136,34 +5136,34 @@
         <v>1025.208098878737</v>
       </c>
       <c r="P12" t="n">
-        <v>1174.508550063331</v>
+        <v>1373.421574466095</v>
       </c>
       <c r="Q12" t="n">
-        <v>1423.305775802253</v>
+        <v>1423.305775802251</v>
       </c>
       <c r="R12" t="n">
-        <v>1415.666230257751</v>
+        <v>1415.666230257749</v>
       </c>
       <c r="S12" t="n">
-        <v>1270.229917202313</v>
+        <v>1374.868296885197</v>
       </c>
       <c r="T12" t="n">
-        <v>1074.115239430711</v>
+        <v>1259.084051428778</v>
       </c>
       <c r="U12" t="n">
-        <v>926.3211598512096</v>
+        <v>1030.959539534095</v>
       </c>
       <c r="V12" t="n">
-        <v>691.1690516194668</v>
+        <v>900.4458109852372</v>
       </c>
       <c r="W12" t="n">
-        <v>541.5700745741506</v>
+        <v>750.846833939921</v>
       </c>
       <c r="X12" t="n">
-        <v>438.3569540515031</v>
+        <v>647.6337134172736</v>
       </c>
       <c r="Y12" t="n">
-        <v>335.2350349694346</v>
+        <v>439.8734146523196</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.9564464442475</v>
+        <v>349.9564464442472</v>
       </c>
       <c r="C13" t="n">
-        <v>285.658643199226</v>
+        <v>285.6586431992257</v>
       </c>
       <c r="D13" t="n">
-        <v>240.1803834697757</v>
+        <v>240.1803834697753</v>
       </c>
       <c r="E13" t="n">
-        <v>196.9056695702679</v>
+        <v>196.9056695702677</v>
       </c>
       <c r="F13" t="n">
-        <v>154.6541017552429</v>
+        <v>154.6541017552427</v>
       </c>
       <c r="G13" t="n">
-        <v>90.86755274804624</v>
+        <v>90.86755274804609</v>
       </c>
       <c r="H13" t="n">
-        <v>42.86869074537655</v>
+        <v>42.86869074537647</v>
       </c>
       <c r="I13" t="n">
-        <v>28.46611551604506</v>
+        <v>28.46611551604503</v>
       </c>
       <c r="J13" t="n">
-        <v>28.46611551604506</v>
+        <v>126.1088478974735</v>
       </c>
       <c r="K13" t="n">
-        <v>150.2288194644399</v>
+        <v>247.8715518458684</v>
       </c>
       <c r="L13" t="n">
-        <v>464.1256696168241</v>
+        <v>459.2123260710566</v>
       </c>
       <c r="M13" t="n">
-        <v>722.9860246274277</v>
+        <v>722.9860246274261</v>
       </c>
       <c r="N13" t="n">
-        <v>956.0935676075406</v>
+        <v>956.0935676075391</v>
       </c>
       <c r="O13" t="n">
-        <v>1155.389817584332</v>
+        <v>1155.389817584331</v>
       </c>
       <c r="P13" t="n">
-        <v>1404.95758262888</v>
+        <v>1404.957582628879</v>
       </c>
       <c r="Q13" t="n">
-        <v>1423.305775802253</v>
+        <v>1423.305775802251</v>
       </c>
       <c r="R13" t="n">
-        <v>1405.645813219885</v>
+        <v>1405.645813219883</v>
       </c>
       <c r="S13" t="n">
-        <v>1306.014213382109</v>
+        <v>1306.014213382108</v>
       </c>
       <c r="T13" t="n">
-        <v>1185.800675175825</v>
+        <v>1185.800675175824</v>
       </c>
       <c r="U13" t="n">
         <v>1001.296801144455</v>
       </c>
       <c r="V13" t="n">
-        <v>851.2506926214539</v>
+        <v>851.2506926214534</v>
       </c>
       <c r="W13" t="n">
-        <v>666.4719022673787</v>
+        <v>666.4719022673781</v>
       </c>
       <c r="X13" t="n">
-        <v>543.1207310522466</v>
+        <v>543.1207310522462</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.9665315916019</v>
+        <v>426.9665315916016</v>
       </c>
     </row>
     <row r="14">
@@ -5252,61 +5252,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>563.8579916559606</v>
+        <v>849.3589439488876</v>
       </c>
       <c r="C14" t="n">
-        <v>299.5338543984343</v>
+        <v>585.0348066913615</v>
       </c>
       <c r="D14" t="n">
-        <v>45.90653547456922</v>
+        <v>585.0348066913615</v>
       </c>
       <c r="E14" t="n">
-        <v>43.48889573358652</v>
+        <v>559.267804979529</v>
       </c>
       <c r="F14" t="n">
-        <v>43.48889573358652</v>
+        <v>252.9202798728069</v>
       </c>
       <c r="G14" t="n">
-        <v>43.48889573358652</v>
+        <v>252.9202798728069</v>
       </c>
       <c r="H14" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="I14" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="J14" t="n">
-        <v>98.45882737879893</v>
+        <v>98.45882737879887</v>
       </c>
       <c r="K14" t="n">
-        <v>231.5830236761719</v>
+        <v>231.5830236761718</v>
       </c>
       <c r="L14" t="n">
-        <v>433.6371226876753</v>
+        <v>769.7581083793049</v>
       </c>
       <c r="M14" t="n">
-        <v>690.130676938986</v>
+        <v>1307.933193082438</v>
       </c>
       <c r="N14" t="n">
-        <v>955.3883734326707</v>
+        <v>1573.190889576123</v>
       </c>
       <c r="O14" t="n">
-        <v>1374.903851929369</v>
+        <v>1810.330949304954</v>
       </c>
       <c r="P14" t="n">
-        <v>1861.377126709554</v>
+        <v>1978.223502995372</v>
       </c>
       <c r="Q14" t="n">
         <v>2149.476536630733</v>
       </c>
       <c r="R14" t="n">
-        <v>2174.444786679326</v>
+        <v>2174.444786679325</v>
       </c>
       <c r="S14" t="n">
         <v>2132.109627225957</v>
       </c>
       <c r="T14" t="n">
-        <v>2023.723445630803</v>
+        <v>2023.723445630802</v>
       </c>
       <c r="U14" t="n">
         <v>1874.702566156232</v>
@@ -5318,10 +5318,10 @@
         <v>1400.147782908318</v>
       </c>
       <c r="X14" t="n">
-        <v>1131.320404330123</v>
+        <v>1131.320404330124</v>
       </c>
       <c r="Y14" t="n">
-        <v>845.8194520371969</v>
+        <v>1131.320404330124</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>628.5515171454865</v>
+        <v>628.5515171454864</v>
       </c>
       <c r="C15" t="n">
         <v>558.7368675472449</v>
@@ -5343,64 +5343,64 @@
         <v>250.5650028805381</v>
       </c>
       <c r="F15" t="n">
-        <v>104.0304449074231</v>
+        <v>174.8952452942341</v>
       </c>
       <c r="G15" t="n">
-        <v>71.44441598062355</v>
+        <v>142.3092163674347</v>
       </c>
       <c r="H15" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="I15" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="J15" t="n">
-        <v>57.4107634827507</v>
+        <v>57.41076348275065</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3602776334669</v>
+        <v>159.3602776334668</v>
       </c>
       <c r="L15" t="n">
-        <v>342.7665219157419</v>
+        <v>342.7665219157417</v>
       </c>
       <c r="M15" t="n">
-        <v>880.9416066188751</v>
+        <v>576.1498264517502</v>
       </c>
       <c r="N15" t="n">
-        <v>1134.910517688003</v>
+        <v>913.8303936434129</v>
       </c>
       <c r="O15" t="n">
-        <v>1673.085602391136</v>
+        <v>1452.005478346546</v>
       </c>
       <c r="P15" t="n">
         <v>1916.584070484678</v>
       </c>
       <c r="Q15" t="n">
-        <v>2174.444786679326</v>
+        <v>2174.444786679325</v>
       </c>
       <c r="R15" t="n">
-        <v>2166.805241134824</v>
+        <v>2166.805241134823</v>
       </c>
       <c r="S15" t="n">
         <v>2021.368928079386</v>
       </c>
       <c r="T15" t="n">
-        <v>1825.254250307784</v>
+        <v>1825.254250307783</v>
       </c>
       <c r="U15" t="n">
         <v>1597.1297384131</v>
       </c>
       <c r="V15" t="n">
-        <v>1361.977630181358</v>
+        <v>1361.977630181357</v>
       </c>
       <c r="W15" t="n">
-        <v>1212.378653136041</v>
+        <v>1107.740273453156</v>
       </c>
       <c r="X15" t="n">
-        <v>1004.527152930508</v>
+        <v>899.8887732476228</v>
       </c>
       <c r="Y15" t="n">
-        <v>796.7668541655546</v>
+        <v>692.1284744826689</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>364.9792266617891</v>
+        <v>364.9792266617885</v>
       </c>
       <c r="C16" t="n">
-        <v>300.6814234167676</v>
+        <v>300.681423416767</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2031636873172</v>
+        <v>255.2031636873168</v>
       </c>
       <c r="E16" t="n">
-        <v>211.9284497878095</v>
+        <v>211.9284497878091</v>
       </c>
       <c r="F16" t="n">
-        <v>169.6768819727845</v>
+        <v>169.6768819727842</v>
       </c>
       <c r="G16" t="n">
-        <v>105.8903329655878</v>
+        <v>105.8903329655876</v>
       </c>
       <c r="H16" t="n">
-        <v>57.89147096291801</v>
+        <v>57.89147096291792</v>
       </c>
       <c r="I16" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="J16" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="K16" t="n">
-        <v>165.2515996819814</v>
+        <v>267.8076756091774</v>
       </c>
       <c r="L16" t="n">
-        <v>376.5923739071696</v>
+        <v>504.7904674930946</v>
       </c>
       <c r="M16" t="n">
-        <v>609.8107112590423</v>
+        <v>738.0088048449672</v>
       </c>
       <c r="N16" t="n">
-        <v>945.4743301663511</v>
+        <v>1073.672423752276</v>
       </c>
       <c r="O16" t="n">
-        <v>1170.412597801873</v>
+        <v>1272.968673729068</v>
       </c>
       <c r="P16" t="n">
-        <v>1317.424286919225</v>
+        <v>1419.98036284642</v>
       </c>
       <c r="Q16" t="n">
-        <v>1438.328556019793</v>
+        <v>1438.328556019792</v>
       </c>
       <c r="R16" t="n">
-        <v>1420.668593437425</v>
+        <v>1420.668593437424</v>
       </c>
       <c r="S16" t="n">
-        <v>1321.03699359965</v>
+        <v>1321.036993599649</v>
       </c>
       <c r="T16" t="n">
-        <v>1200.823455393366</v>
+        <v>1200.823455393365</v>
       </c>
       <c r="U16" t="n">
-        <v>1016.319581361997</v>
+        <v>1016.319581361996</v>
       </c>
       <c r="V16" t="n">
-        <v>866.2734728389954</v>
+        <v>866.2734728389944</v>
       </c>
       <c r="W16" t="n">
-        <v>681.4946824849202</v>
+        <v>681.4946824849193</v>
       </c>
       <c r="X16" t="n">
-        <v>558.1435112697882</v>
+        <v>558.1435112697874</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.9893118091435</v>
+        <v>441.9893118091427</v>
       </c>
     </row>
     <row r="17">
@@ -5492,64 +5492,64 @@
         <v>1166.961712394831</v>
       </c>
       <c r="C17" t="n">
-        <v>982.7473696066617</v>
+        <v>982.7473696066626</v>
       </c>
       <c r="D17" t="n">
-        <v>809.229845152154</v>
+        <v>832.022350880727</v>
       </c>
       <c r="E17" t="n">
-        <v>608.1897667061526</v>
+        <v>630.9822724347256</v>
       </c>
       <c r="F17" t="n">
-        <v>404.7445417973613</v>
+        <v>404.7445417973609</v>
       </c>
       <c r="G17" t="n">
-        <v>172.8104854034496</v>
+        <v>172.8104854034495</v>
       </c>
       <c r="H17" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="I17" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="J17" t="n">
-        <v>98.45882737879893</v>
+        <v>98.45882737879887</v>
       </c>
       <c r="K17" t="n">
-        <v>231.5830236761719</v>
+        <v>231.5830236761718</v>
       </c>
       <c r="L17" t="n">
-        <v>433.6371226876753</v>
+        <v>769.7581083793049</v>
       </c>
       <c r="M17" t="n">
-        <v>872.5060957068522</v>
+        <v>1026.251662630615</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.763792200537</v>
+        <v>1291.5093591243</v>
       </c>
       <c r="O17" t="n">
-        <v>1374.903851929369</v>
+        <v>1829.684443827433</v>
       </c>
       <c r="P17" t="n">
-        <v>1861.377126709554</v>
+        <v>2071.568967462859</v>
       </c>
       <c r="Q17" t="n">
         <v>2149.476536630733</v>
       </c>
       <c r="R17" t="n">
-        <v>2174.444786679326</v>
+        <v>2174.444786679325</v>
       </c>
       <c r="S17" t="n">
-        <v>2174.444786679326</v>
+        <v>2174.444786679325</v>
       </c>
       <c r="T17" t="n">
         <v>2146.168399553528</v>
       </c>
       <c r="U17" t="n">
-        <v>2077.257314548315</v>
+        <v>2077.257314548316</v>
       </c>
       <c r="V17" t="n">
-        <v>1930.942601356987</v>
+        <v>1930.942601356988</v>
       </c>
       <c r="W17" t="n">
         <v>1762.922120239116</v>
@@ -5558,7 +5558,7 @@
         <v>1574.204536130279</v>
       </c>
       <c r="Y17" t="n">
-        <v>1368.81337830671</v>
+        <v>1368.813378306711</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>523.9131374626013</v>
+        <v>523.9131374626008</v>
       </c>
       <c r="C18" t="n">
-        <v>349.4601081814743</v>
+        <v>437.778184001801</v>
       </c>
       <c r="D18" t="n">
-        <v>327.2777370779465</v>
+        <v>288.8437743405498</v>
       </c>
       <c r="E18" t="n">
-        <v>327.2777370779465</v>
+        <v>288.8437743405498</v>
       </c>
       <c r="F18" t="n">
-        <v>180.7431791048315</v>
+        <v>142.3092163674347</v>
       </c>
       <c r="G18" t="n">
-        <v>180.7431791048315</v>
+        <v>142.3092163674347</v>
       </c>
       <c r="H18" t="n">
-        <v>81.92285847098324</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="I18" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="J18" t="n">
-        <v>57.4107634827507</v>
+        <v>57.41076348275065</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3602776334669</v>
+        <v>159.3602776334668</v>
       </c>
       <c r="L18" t="n">
-        <v>342.7665219157419</v>
+        <v>342.7665219157417</v>
       </c>
       <c r="M18" t="n">
-        <v>576.1498264517504</v>
+        <v>576.1498264517502</v>
       </c>
       <c r="N18" t="n">
-        <v>913.830393643413</v>
+        <v>1114.324911154883</v>
       </c>
       <c r="O18" t="n">
         <v>1452.005478346546</v>
@@ -5613,31 +5613,31 @@
         <v>1916.584070484678</v>
       </c>
       <c r="Q18" t="n">
-        <v>2174.444786679326</v>
+        <v>2174.444786679325</v>
       </c>
       <c r="R18" t="n">
-        <v>2166.805241134824</v>
+        <v>2166.805241134823</v>
       </c>
       <c r="S18" t="n">
         <v>2021.368928079386</v>
       </c>
       <c r="T18" t="n">
-        <v>1825.254250307784</v>
+        <v>1825.254250307783</v>
       </c>
       <c r="U18" t="n">
         <v>1597.1297384131</v>
       </c>
       <c r="V18" t="n">
-        <v>1361.977630181358</v>
+        <v>1361.977630181357</v>
       </c>
       <c r="W18" t="n">
         <v>1107.740273453156</v>
       </c>
       <c r="X18" t="n">
-        <v>899.8887732476232</v>
+        <v>899.8887732476228</v>
       </c>
       <c r="Y18" t="n">
-        <v>692.1284744826694</v>
+        <v>692.1284744826689</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.77067887692317</v>
+        <v>113.1208014419094</v>
       </c>
       <c r="C19" t="n">
-        <v>53.77067887692317</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="D19" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="E19" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="F19" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="G19" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="H19" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="I19" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="J19" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="K19" t="n">
-        <v>165.2515996819814</v>
+        <v>165.2515996819813</v>
       </c>
       <c r="L19" t="n">
-        <v>376.5923739071696</v>
+        <v>376.5923739071695</v>
       </c>
       <c r="M19" t="n">
-        <v>609.8107112590423</v>
+        <v>609.8107112590421</v>
       </c>
       <c r="N19" t="n">
-        <v>842.9182542391552</v>
+        <v>842.9182542391551</v>
       </c>
       <c r="O19" t="n">
         <v>1042.214504215947</v>
@@ -5692,31 +5692,31 @@
         <v>1189.226193333299</v>
       </c>
       <c r="Q19" t="n">
-        <v>1207.574386506672</v>
+        <v>1207.574386506671</v>
       </c>
       <c r="R19" t="n">
-        <v>1207.574386506672</v>
+        <v>1085.276044241418</v>
       </c>
       <c r="S19" t="n">
-        <v>1188.052581138253</v>
+        <v>881.006064720757</v>
       </c>
       <c r="T19" t="n">
-        <v>963.2006632490841</v>
+        <v>840.9023209838305</v>
       </c>
       <c r="U19" t="n">
-        <v>674.0584095348295</v>
+        <v>736.5082414218186</v>
       </c>
       <c r="V19" t="n">
-        <v>604.1220954811854</v>
+        <v>481.8237532159318</v>
       </c>
       <c r="W19" t="n">
-        <v>499.4530995964676</v>
+        <v>377.154757331214</v>
       </c>
       <c r="X19" t="n">
-        <v>456.211722850693</v>
+        <v>333.9133805854395</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.4191437071629</v>
+        <v>113.1208014419094</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.961712394831</v>
+        <v>1189.754218123404</v>
       </c>
       <c r="C20" t="n">
-        <v>982.7473696066619</v>
+        <v>1005.539875335235</v>
       </c>
       <c r="D20" t="n">
-        <v>809.2298451521542</v>
+        <v>832.0223508807271</v>
       </c>
       <c r="E20" t="n">
-        <v>608.1897667061527</v>
+        <v>630.9822724347257</v>
       </c>
       <c r="F20" t="n">
-        <v>404.7445417973611</v>
+        <v>404.744541797361</v>
       </c>
       <c r="G20" t="n">
-        <v>172.8104854034496</v>
+        <v>172.8104854034495</v>
       </c>
       <c r="H20" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="I20" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="J20" t="n">
-        <v>98.45882737879893</v>
+        <v>231.9895691410555</v>
       </c>
       <c r="K20" t="n">
-        <v>231.5830236761719</v>
+        <v>686.0177238838816</v>
       </c>
       <c r="L20" t="n">
-        <v>433.6371226876753</v>
+        <v>888.0718228953849</v>
       </c>
       <c r="M20" t="n">
-        <v>690.130676938986</v>
+        <v>1426.246907598518</v>
       </c>
       <c r="N20" t="n">
-        <v>955.3883734326707</v>
+        <v>1691.504604092203</v>
       </c>
       <c r="O20" t="n">
-        <v>1374.903851929369</v>
+        <v>1928.644663821034</v>
       </c>
       <c r="P20" t="n">
-        <v>1861.377126709554</v>
+        <v>2096.537217511452</v>
       </c>
       <c r="Q20" t="n">
-        <v>2149.476536630733</v>
+        <v>2174.444786679325</v>
       </c>
       <c r="R20" t="n">
-        <v>2174.444786679326</v>
+        <v>2174.444786679325</v>
       </c>
       <c r="S20" t="n">
-        <v>2174.444786679326</v>
+        <v>2174.444786679325</v>
       </c>
       <c r="T20" t="n">
-        <v>2146.168399553528</v>
+        <v>2146.168399553529</v>
       </c>
       <c r="U20" t="n">
-        <v>2077.257314548315</v>
+        <v>2077.257314548316</v>
       </c>
       <c r="V20" t="n">
-        <v>1930.942601356987</v>
+        <v>1930.942601356988</v>
       </c>
       <c r="W20" t="n">
-        <v>1762.922120239116</v>
+        <v>1762.922120239117</v>
       </c>
       <c r="X20" t="n">
-        <v>1574.204536130279</v>
+        <v>1596.997041858851</v>
       </c>
       <c r="Y20" t="n">
-        <v>1368.81337830671</v>
+        <v>1391.605884035283</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>663.3381982911052</v>
+        <v>523.9131374626008</v>
       </c>
       <c r="C21" t="n">
-        <v>488.8851690099781</v>
+        <v>498.1953183734083</v>
       </c>
       <c r="D21" t="n">
-        <v>339.9507593487269</v>
+        <v>349.2609087121571</v>
       </c>
       <c r="E21" t="n">
-        <v>180.7133043432714</v>
+        <v>190.0234537067015</v>
       </c>
       <c r="F21" t="n">
-        <v>180.7133043432714</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="G21" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="H21" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="I21" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="J21" t="n">
-        <v>57.4107634827507</v>
+        <v>57.41076348275065</v>
       </c>
       <c r="K21" t="n">
-        <v>159.3602776334669</v>
+        <v>159.3602776334668</v>
       </c>
       <c r="L21" t="n">
-        <v>342.7665219157419</v>
+        <v>342.7665219157417</v>
       </c>
       <c r="M21" t="n">
-        <v>576.1498264517504</v>
+        <v>576.1498264517502</v>
       </c>
       <c r="N21" t="n">
-        <v>913.830393643413</v>
+        <v>1114.324911154883</v>
       </c>
       <c r="O21" t="n">
-        <v>1452.005478346546</v>
+        <v>1652.499995858016</v>
       </c>
       <c r="P21" t="n">
         <v>1916.584070484678</v>
       </c>
       <c r="Q21" t="n">
-        <v>2174.444786679326</v>
+        <v>2174.444786679325</v>
       </c>
       <c r="R21" t="n">
-        <v>2166.805241134824</v>
+        <v>2166.805241134823</v>
       </c>
       <c r="S21" t="n">
         <v>2021.368928079386</v>
       </c>
       <c r="T21" t="n">
-        <v>1825.254250307784</v>
+        <v>1825.254250307783</v>
       </c>
       <c r="U21" t="n">
         <v>1597.1297384131</v>
       </c>
       <c r="V21" t="n">
-        <v>1361.977630181358</v>
+        <v>1361.977630181357</v>
       </c>
       <c r="W21" t="n">
         <v>1107.740273453156</v>
       </c>
       <c r="X21" t="n">
-        <v>899.8887732476232</v>
+        <v>899.8887732476228</v>
       </c>
       <c r="Y21" t="n">
-        <v>692.1284744826694</v>
+        <v>692.1284744826689</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>212.4250786614934</v>
+        <v>116.2205107639128</v>
       </c>
       <c r="C22" t="n">
-        <v>43.48889573358652</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="D22" t="n">
-        <v>43.48889573358652</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="E22" t="n">
-        <v>43.48889573358652</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="F22" t="n">
-        <v>43.48889573358652</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="G22" t="n">
-        <v>43.48889573358652</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="H22" t="n">
-        <v>43.48889573358652</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="I22" t="n">
-        <v>43.48889573358652</v>
+        <v>48.50200005535724</v>
       </c>
       <c r="J22" t="n">
-        <v>43.48889573358652</v>
+        <v>43.4888957335865</v>
       </c>
       <c r="K22" t="n">
-        <v>165.2515996819814</v>
+        <v>165.2515996819813</v>
       </c>
       <c r="L22" t="n">
-        <v>376.5923739071696</v>
+        <v>376.5923739071695</v>
       </c>
       <c r="M22" t="n">
-        <v>609.8107112590423</v>
+        <v>609.8107112590421</v>
       </c>
       <c r="N22" t="n">
-        <v>842.9182542391552</v>
+        <v>842.9182542391551</v>
       </c>
       <c r="O22" t="n">
         <v>1042.214504215947</v>
@@ -5929,7 +5929,7 @@
         <v>1189.226193333299</v>
       </c>
       <c r="Q22" t="n">
-        <v>1207.574386506672</v>
+        <v>1207.574386506671</v>
       </c>
       <c r="R22" t="n">
         <v>1085.276044241418</v>
@@ -5941,19 +5941,19 @@
         <v>1025.650495136073</v>
       </c>
       <c r="U22" t="n">
-        <v>835.8125186414029</v>
+        <v>736.5082414218189</v>
       </c>
       <c r="V22" t="n">
-        <v>765.8762045877588</v>
+        <v>481.823753215932</v>
       </c>
       <c r="W22" t="n">
-        <v>661.2072087030409</v>
+        <v>377.1547573312142</v>
       </c>
       <c r="X22" t="n">
-        <v>433.2176578050236</v>
+        <v>333.9133805854398</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.4250786614934</v>
+        <v>297.8689755941525</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190.219371301538</v>
+        <v>1190.219371301537</v>
       </c>
       <c r="C23" t="n">
-        <v>1006.005028513369</v>
+        <v>1006.005028513368</v>
       </c>
       <c r="D23" t="n">
-        <v>832.4875040588615</v>
+        <v>832.4875040588607</v>
       </c>
       <c r="E23" t="n">
-        <v>631.44742561286</v>
+        <v>631.4474256128593</v>
       </c>
       <c r="F23" t="n">
-        <v>405.2096949754953</v>
+        <v>405.2096949754947</v>
       </c>
       <c r="G23" t="n">
-        <v>173.2756385815837</v>
+        <v>173.2756385815836</v>
       </c>
       <c r="H23" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172063</v>
       </c>
       <c r="I23" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172063</v>
       </c>
       <c r="J23" t="n">
-        <v>98.92398055693307</v>
+        <v>98.92398055693299</v>
       </c>
       <c r="K23" t="n">
-        <v>232.0481768543061</v>
+        <v>396.7278166574665</v>
       </c>
       <c r="L23" t="n">
-        <v>434.1022758658095</v>
+        <v>598.7819156689699</v>
       </c>
       <c r="M23" t="n">
-        <v>690.5958301171202</v>
+        <v>1142.713270951513</v>
       </c>
       <c r="N23" t="n">
-        <v>955.8535266108049</v>
+        <v>1407.970967445197</v>
       </c>
       <c r="O23" t="n">
-        <v>1398.161510836076</v>
+        <v>1951.90232272774</v>
       </c>
       <c r="P23" t="n">
-        <v>1884.634785616261</v>
+        <v>2119.794876418158</v>
       </c>
       <c r="Q23" t="n">
-        <v>2172.73419553744</v>
+        <v>2197.702445586031</v>
       </c>
       <c r="R23" t="n">
-        <v>2197.702445586033</v>
+        <v>2197.702445586031</v>
       </c>
       <c r="S23" t="n">
-        <v>2197.702445586033</v>
+        <v>2197.702445586031</v>
       </c>
       <c r="T23" t="n">
-        <v>2169.426058460235</v>
+        <v>2169.426058460234</v>
       </c>
       <c r="U23" t="n">
-        <v>2100.514973455022</v>
+        <v>2100.514973455021</v>
       </c>
       <c r="V23" t="n">
-        <v>1954.200260263694</v>
+        <v>1954.200260263693</v>
       </c>
       <c r="W23" t="n">
-        <v>1786.179779145823</v>
+        <v>1786.179779145822</v>
       </c>
       <c r="X23" t="n">
-        <v>1597.462195036986</v>
+        <v>1597.462195036985</v>
       </c>
       <c r="Y23" t="n">
-        <v>1392.071037213417</v>
+        <v>1392.071037213416</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>547.1707963693084</v>
+        <v>547.170796369307</v>
       </c>
       <c r="C24" t="n">
-        <v>372.7177670881814</v>
+        <v>372.71776708818</v>
       </c>
       <c r="D24" t="n">
-        <v>372.7177670881814</v>
+        <v>223.7833574269288</v>
       </c>
       <c r="E24" t="n">
-        <v>327.7130154945206</v>
+        <v>64.54590242147327</v>
       </c>
       <c r="F24" t="n">
-        <v>181.1784575214055</v>
+        <v>64.54590242147327</v>
       </c>
       <c r="G24" t="n">
-        <v>43.95404891172065</v>
+        <v>64.54590242147327</v>
       </c>
       <c r="H24" t="n">
-        <v>43.95404891172065</v>
+        <v>64.54590242147327</v>
       </c>
       <c r="I24" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172063</v>
       </c>
       <c r="J24" t="n">
-        <v>57.87591666088483</v>
+        <v>182.7060416478895</v>
       </c>
       <c r="K24" t="n">
-        <v>159.825430811601</v>
+        <v>284.6555557986056</v>
       </c>
       <c r="L24" t="n">
-        <v>343.231675093876</v>
+        <v>828.5869110811484</v>
       </c>
       <c r="M24" t="n">
-        <v>576.6149796298844</v>
+        <v>1219.158599467215</v>
       </c>
       <c r="N24" t="n">
-        <v>931.3317819707102</v>
+        <v>1473.127510536342</v>
       </c>
       <c r="O24" t="n">
-        <v>1475.263137253253</v>
+        <v>1683.239652111743</v>
       </c>
       <c r="P24" t="n">
-        <v>1939.841729391385</v>
+        <v>2147.818244249875</v>
       </c>
       <c r="Q24" t="n">
-        <v>2197.702445586033</v>
+        <v>2197.702445586031</v>
       </c>
       <c r="R24" t="n">
-        <v>2190.062900041531</v>
+        <v>2190.062900041529</v>
       </c>
       <c r="S24" t="n">
-        <v>2044.626586986093</v>
+        <v>2044.626586986092</v>
       </c>
       <c r="T24" t="n">
-        <v>1848.511909214491</v>
+        <v>1848.511909214489</v>
       </c>
       <c r="U24" t="n">
-        <v>1620.387397319807</v>
+        <v>1620.387397319806</v>
       </c>
       <c r="V24" t="n">
-        <v>1385.235289088065</v>
+        <v>1385.235289088063</v>
       </c>
       <c r="W24" t="n">
-        <v>1130.997932359863</v>
+        <v>1130.997932359862</v>
       </c>
       <c r="X24" t="n">
-        <v>923.1464321543303</v>
+        <v>923.146432154329</v>
       </c>
       <c r="Y24" t="n">
-        <v>715.3861333893765</v>
+        <v>715.3861333893751</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>194.0706883240564</v>
+        <v>509.8968187498737</v>
       </c>
       <c r="C25" t="n">
-        <v>194.0706883240564</v>
+        <v>340.9606358219667</v>
       </c>
       <c r="D25" t="n">
-        <v>43.95404891172065</v>
+        <v>190.843996409631</v>
       </c>
       <c r="E25" t="n">
-        <v>43.95404891172065</v>
+        <v>190.843996409631</v>
       </c>
       <c r="F25" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172063</v>
       </c>
       <c r="G25" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172063</v>
       </c>
       <c r="H25" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172063</v>
       </c>
       <c r="I25" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172063</v>
       </c>
       <c r="J25" t="n">
-        <v>43.95404891172065</v>
+        <v>43.95404891172063</v>
       </c>
       <c r="K25" t="n">
-        <v>165.7167528601155</v>
+        <v>165.7167528601154</v>
       </c>
       <c r="L25" t="n">
-        <v>377.0575270853037</v>
+        <v>377.0575270853036</v>
       </c>
       <c r="M25" t="n">
-        <v>610.2758644371764</v>
+        <v>610.2758644371763</v>
       </c>
       <c r="N25" t="n">
-        <v>843.3834074172894</v>
+        <v>843.3834074172893</v>
       </c>
       <c r="O25" t="n">
         <v>1042.679657394081</v>
@@ -6169,28 +6169,28 @@
         <v>1208.039539684806</v>
       </c>
       <c r="R25" t="n">
-        <v>1085.741197419552</v>
+        <v>1208.039539684806</v>
       </c>
       <c r="S25" t="n">
-        <v>1066.219392051134</v>
+        <v>1003.769560164145</v>
       </c>
       <c r="T25" t="n">
-        <v>1026.115648314207</v>
+        <v>963.6658164272181</v>
       </c>
       <c r="U25" t="n">
-        <v>921.7215687521955</v>
+        <v>859.2717368652063</v>
       </c>
       <c r="V25" t="n">
-        <v>667.0370805463086</v>
+        <v>789.3354228115622</v>
       </c>
       <c r="W25" t="n">
-        <v>377.619910509348</v>
+        <v>589.1826004869354</v>
       </c>
       <c r="X25" t="n">
-        <v>334.3785337635734</v>
+        <v>545.9412237411609</v>
       </c>
       <c r="Y25" t="n">
-        <v>298.3341287722861</v>
+        <v>509.8968187498737</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1304.603692618875</v>
       </c>
       <c r="E26" t="n">
-        <v>998.9252344899885</v>
+        <v>998.9252344899886</v>
       </c>
       <c r="F26" t="n">
-        <v>668.0491241697383</v>
+        <v>668.0491241697384</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4766880929413</v>
+        <v>331.4766880929415</v>
       </c>
       <c r="H26" t="n">
         <v>97.51671874019294</v>
@@ -6224,28 +6224,28 @@
         <v>73.56855591917822</v>
       </c>
       <c r="J26" t="n">
-        <v>128.5384875643906</v>
+        <v>295.9441365847437</v>
       </c>
       <c r="K26" t="n">
-        <v>261.6626838617636</v>
+        <v>749.9722913275698</v>
       </c>
       <c r="L26" t="n">
-        <v>865.0115179592407</v>
+        <v>1365.510992744019</v>
       </c>
       <c r="M26" t="n">
-        <v>1566.523470368455</v>
+        <v>2067.022945153234</v>
       </c>
       <c r="N26" t="n">
-        <v>2264.754622030005</v>
+        <v>2499.914712831903</v>
       </c>
       <c r="O26" t="n">
-        <v>2878.886861208954</v>
+        <v>3114.046952010852</v>
       </c>
       <c r="P26" t="n">
-        <v>3365.36013598914</v>
+        <v>3600.520226791038</v>
       </c>
       <c r="Q26" t="n">
-        <v>3653.459545910319</v>
+        <v>3678.427795958911</v>
       </c>
       <c r="R26" t="n">
         <v>3678.427795958911</v>
@@ -6303,22 +6303,22 @@
         <v>73.56855591917822</v>
       </c>
       <c r="J27" t="n">
-        <v>87.4904236683424</v>
+        <v>212.3205486553471</v>
       </c>
       <c r="K27" t="n">
-        <v>189.4399378190586</v>
+        <v>576.0906474485162</v>
       </c>
       <c r="L27" t="n">
-        <v>372.8461821013336</v>
+        <v>759.4968917307912</v>
       </c>
       <c r="M27" t="n">
-        <v>606.229486637342</v>
+        <v>1281.947178413893</v>
       </c>
       <c r="N27" t="n">
-        <v>1305.263203045638</v>
+        <v>2010.465040083139</v>
       </c>
       <c r="O27" t="n">
-        <v>1905.299040705002</v>
+        <v>2220.577181658539</v>
       </c>
       <c r="P27" t="n">
         <v>2369.877632843134</v>
@@ -6373,7 +6373,7 @@
         <v>273.3422977989601</v>
       </c>
       <c r="G28" t="n">
-        <v>185.0271635782354</v>
+        <v>185.0271635782353</v>
       </c>
       <c r="H28" t="n">
         <v>112.4997163620377</v>
@@ -6382,16 +6382,16 @@
         <v>73.56855591917822</v>
       </c>
       <c r="J28" t="n">
-        <v>147.1708219328278</v>
+        <v>147.1708219328279</v>
       </c>
       <c r="K28" t="n">
-        <v>347.4491354406399</v>
+        <v>347.44913544064</v>
       </c>
       <c r="L28" t="n">
-        <v>637.3055192252452</v>
+        <v>637.3055192252453</v>
       </c>
       <c r="M28" t="n">
-        <v>949.0394661365351</v>
+        <v>949.0394661365352</v>
       </c>
       <c r="N28" t="n">
         <v>1260.662618676065</v>
@@ -6446,46 +6446,46 @@
         <v>1304.603692618875</v>
       </c>
       <c r="E29" t="n">
-        <v>998.9252344899882</v>
+        <v>998.9252344899886</v>
       </c>
       <c r="F29" t="n">
-        <v>668.049124169738</v>
+        <v>668.0491241697384</v>
       </c>
       <c r="G29" t="n">
-        <v>331.476688092941</v>
+        <v>331.4766880929415</v>
       </c>
       <c r="H29" t="n">
-        <v>97.51671874019294</v>
+        <v>97.51671874019297</v>
       </c>
       <c r="I29" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J29" t="n">
         <v>128.5384875643906</v>
       </c>
       <c r="K29" t="n">
-        <v>582.5666423072167</v>
+        <v>582.5666423072166</v>
       </c>
       <c r="L29" t="n">
-        <v>865.0115179592407</v>
+        <v>1198.105343723666</v>
       </c>
       <c r="M29" t="n">
-        <v>1566.523470368455</v>
+        <v>1899.617296132881</v>
       </c>
       <c r="N29" t="n">
-        <v>2264.754622030005</v>
+        <v>2597.84844779443</v>
       </c>
       <c r="O29" t="n">
-        <v>2878.886861208954</v>
+        <v>3211.980686973379</v>
       </c>
       <c r="P29" t="n">
-        <v>3365.36013598914</v>
+        <v>3575.551976742446</v>
       </c>
       <c r="Q29" t="n">
         <v>3653.459545910319</v>
       </c>
       <c r="R29" t="n">
-        <v>3678.427795958911</v>
+        <v>3678.427795958912</v>
       </c>
       <c r="S29" t="n">
         <v>3611.564051292015</v>
@@ -6503,10 +6503,10 @@
         <v>2781.487866120263</v>
       </c>
       <c r="X29" t="n">
-        <v>2488.13190232854</v>
+        <v>2488.131902328541</v>
       </c>
       <c r="Y29" t="n">
-        <v>2178.102364822086</v>
+        <v>2178.102364822087</v>
       </c>
     </row>
     <row r="30">
@@ -6528,31 +6528,31 @@
         <v>494.5818058732231</v>
       </c>
       <c r="F30" t="n">
-        <v>348.047247900108</v>
+        <v>348.0472479001081</v>
       </c>
       <c r="G30" t="n">
         <v>210.8228392904232</v>
       </c>
       <c r="H30" t="n">
-        <v>112.0025186565749</v>
+        <v>112.002518656575</v>
       </c>
       <c r="I30" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J30" t="n">
-        <v>87.4904236683424</v>
+        <v>212.3205486553471</v>
       </c>
       <c r="K30" t="n">
-        <v>189.4399378190586</v>
+        <v>563.3804261296902</v>
       </c>
       <c r="L30" t="n">
-        <v>372.8461821013336</v>
+        <v>746.7866704119652</v>
       </c>
       <c r="M30" t="n">
-        <v>606.229486637342</v>
+        <v>1441.217988060474</v>
       </c>
       <c r="N30" t="n">
-        <v>1305.263203045638</v>
+        <v>1695.186899129601</v>
       </c>
       <c r="O30" t="n">
         <v>1905.299040705002</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>566.7589833420766</v>
+        <v>566.7589833420765</v>
       </c>
       <c r="C31" t="n">
-        <v>477.9325948835271</v>
+        <v>477.932594883527</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9257499405488</v>
+        <v>407.9257499405487</v>
       </c>
       <c r="E31" t="n">
-        <v>340.122450827513</v>
+        <v>340.1224508275129</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3422977989601</v>
+        <v>273.34229779896</v>
       </c>
       <c r="G31" t="n">
         <v>185.0271635782354</v>
@@ -6616,7 +6616,7 @@
         <v>112.4997163620377</v>
       </c>
       <c r="I31" t="n">
-        <v>73.56855591917822</v>
+        <v>73.56855591917824</v>
       </c>
       <c r="J31" t="n">
         <v>147.1708219328279</v>
@@ -6661,10 +6661,10 @@
         <v>956.8601948057915</v>
       </c>
       <c r="X31" t="n">
-        <v>808.9804383771316</v>
+        <v>808.9804383771315</v>
       </c>
       <c r="Y31" t="n">
-        <v>668.2976537029589</v>
+        <v>668.2976537029588</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1871.612319227323</v>
+        <v>1871.612319227322</v>
       </c>
       <c r="C32" t="n">
         <v>1582.759596756268</v>
@@ -6683,34 +6683,34 @@
         <v>1304.603692618875</v>
       </c>
       <c r="E32" t="n">
-        <v>998.9252344899886</v>
+        <v>998.9252344899883</v>
       </c>
       <c r="F32" t="n">
-        <v>668.0491241697384</v>
+        <v>668.0491241697382</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4766880929415</v>
+        <v>331.4766880929413</v>
       </c>
       <c r="H32" t="n">
-        <v>97.51671874019297</v>
+        <v>97.51671874019294</v>
       </c>
       <c r="I32" t="n">
         <v>73.56855591917824</v>
       </c>
       <c r="J32" t="n">
-        <v>128.5384875643907</v>
+        <v>128.5384875643906</v>
       </c>
       <c r="K32" t="n">
-        <v>261.6626838617636</v>
+        <v>261.6626838617635</v>
       </c>
       <c r="L32" t="n">
-        <v>865.0115179592411</v>
+        <v>865.0115179592417</v>
       </c>
       <c r="M32" t="n">
         <v>1566.523470368456</v>
       </c>
       <c r="N32" t="n">
-        <v>2264.754622030005</v>
+        <v>2264.754622030006</v>
       </c>
       <c r="O32" t="n">
         <v>2878.886861208955</v>
@@ -6725,25 +6725,25 @@
         <v>3678.427795958912</v>
       </c>
       <c r="S32" t="n">
-        <v>3611.564051292016</v>
+        <v>3611.564051292015</v>
       </c>
       <c r="T32" t="n">
         <v>3478.649284483333</v>
       </c>
       <c r="U32" t="n">
-        <v>3305.099819795234</v>
+        <v>3305.099819795233</v>
       </c>
       <c r="V32" t="n">
-        <v>3054.146726921021</v>
+        <v>3054.14672692102</v>
       </c>
       <c r="W32" t="n">
-        <v>2781.487866120264</v>
+        <v>2781.487866120263</v>
       </c>
       <c r="X32" t="n">
-        <v>2488.131902328541</v>
+        <v>2488.13190232854</v>
       </c>
       <c r="Y32" t="n">
-        <v>2178.102364822087</v>
+        <v>2178.102364822086</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>494.5818058732231</v>
       </c>
       <c r="F33" t="n">
-        <v>348.047247900108</v>
+        <v>348.0472479001081</v>
       </c>
       <c r="G33" t="n">
         <v>210.8228392904232</v>
       </c>
       <c r="H33" t="n">
-        <v>112.0025186565749</v>
+        <v>112.002518656575</v>
       </c>
       <c r="I33" t="n">
         <v>73.56855591917824</v>
       </c>
       <c r="J33" t="n">
-        <v>87.49042366834242</v>
+        <v>87.49042366834239</v>
       </c>
       <c r="K33" t="n">
-        <v>189.4399378190586</v>
+        <v>451.2605224615113</v>
       </c>
       <c r="L33" t="n">
-        <v>372.8461821013336</v>
+        <v>634.6667667437863</v>
       </c>
       <c r="M33" t="n">
-        <v>606.229486637342</v>
+        <v>1329.098084392295</v>
       </c>
       <c r="N33" t="n">
-        <v>1305.263203045638</v>
+        <v>1828.517858857667</v>
       </c>
       <c r="O33" t="n">
-        <v>1905.299040705002</v>
+        <v>2428.55369651703</v>
       </c>
       <c r="P33" t="n">
-        <v>2369.877632843134</v>
+        <v>2577.854147701624</v>
       </c>
       <c r="Q33" t="n">
         <v>2627.738349037781</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>566.7589833420767</v>
+        <v>566.7589833420765</v>
       </c>
       <c r="C34" t="n">
-        <v>477.9325948835271</v>
+        <v>477.932594883527</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9257499405488</v>
+        <v>407.9257499405487</v>
       </c>
       <c r="E34" t="n">
         <v>340.122450827513</v>
       </c>
       <c r="F34" t="n">
-        <v>273.3422977989603</v>
+        <v>273.34229779896</v>
       </c>
       <c r="G34" t="n">
-        <v>185.0271635782356</v>
+        <v>185.0271635782354</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4997163620379</v>
+        <v>112.4997163620377</v>
       </c>
       <c r="I34" t="n">
         <v>73.56855591917824</v>
       </c>
       <c r="J34" t="n">
-        <v>147.1708219328278</v>
+        <v>147.1708219328279</v>
       </c>
       <c r="K34" t="n">
-        <v>347.4491354406399</v>
+        <v>347.44913544064</v>
       </c>
       <c r="L34" t="n">
         <v>637.3055192252452</v>
       </c>
       <c r="M34" t="n">
-        <v>949.0394661365353</v>
+        <v>949.0394661365347</v>
       </c>
       <c r="N34" t="n">
         <v>1260.662618676065</v>
       </c>
       <c r="O34" t="n">
-        <v>1538.474478212274</v>
+        <v>1538.474478212273</v>
       </c>
       <c r="P34" t="n">
         <v>1764.001776889043</v>
       </c>
       <c r="Q34" t="n">
-        <v>1860.865579621833</v>
+        <v>1860.865579621832</v>
       </c>
       <c r="R34" t="n">
-        <v>1818.677031825937</v>
+        <v>1818.677031825936</v>
       </c>
       <c r="S34" t="n">
-        <v>1694.516846774634</v>
+        <v>1694.516846774633</v>
       </c>
       <c r="T34" t="n">
-        <v>1549.774723354822</v>
+        <v>1549.774723354821</v>
       </c>
       <c r="U34" t="n">
-        <v>1340.742264109925</v>
+        <v>1340.742264109924</v>
       </c>
       <c r="V34" t="n">
-        <v>1166.167570373395</v>
+        <v>1166.167570373394</v>
       </c>
       <c r="W34" t="n">
-        <v>956.8601948057918</v>
+        <v>956.8601948057914</v>
       </c>
       <c r="X34" t="n">
-        <v>808.9804383771318</v>
+        <v>808.9804383771315</v>
       </c>
       <c r="Y34" t="n">
-        <v>668.297653702959</v>
+        <v>668.2976537029588</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1383.201111817076</v>
       </c>
       <c r="C35" t="n">
-        <v>1168.185123148577</v>
+        <v>1168.185123148578</v>
       </c>
       <c r="D35" t="n">
-        <v>963.865952813739</v>
+        <v>963.8659528137397</v>
       </c>
       <c r="E35" t="n">
-        <v>732.0242284874074</v>
+        <v>732.0242284874081</v>
       </c>
       <c r="F35" t="n">
-        <v>474.9848519697125</v>
+        <v>474.9848519697132</v>
       </c>
       <c r="G35" t="n">
         <v>212.2491496954708</v>
@@ -6935,28 +6935,28 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J35" t="n">
-        <v>107.09584579049</v>
+        <v>274.501494810843</v>
       </c>
       <c r="K35" t="n">
-        <v>240.220042087863</v>
+        <v>728.5296495536691</v>
       </c>
       <c r="L35" t="n">
-        <v>442.2741410993664</v>
+        <v>930.5837485651724</v>
       </c>
       <c r="M35" t="n">
-        <v>698.7676953506771</v>
+        <v>1270.91380797965</v>
       </c>
       <c r="N35" t="n">
-        <v>1192.622533334974</v>
+        <v>1536.171504473334</v>
       </c>
       <c r="O35" t="n">
-        <v>1806.754772513923</v>
+        <v>2150.303743652284</v>
       </c>
       <c r="P35" t="n">
-        <v>2293.228047294109</v>
+        <v>2318.196297342701</v>
       </c>
       <c r="Q35" t="n">
-        <v>2581.327457215288</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="R35" t="n">
         <v>2606.295707263881</v>
@@ -6965,22 +6965,22 @@
         <v>2606.295707263881</v>
       </c>
       <c r="T35" t="n">
-        <v>2547.217674257753</v>
+        <v>2547.217674257754</v>
       </c>
       <c r="U35" t="n">
-        <v>2447.504943372211</v>
+        <v>2447.504943372212</v>
       </c>
       <c r="V35" t="n">
-        <v>2270.388584300553</v>
+        <v>2270.388584300554</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.566457302351</v>
+        <v>2071.566457302352</v>
       </c>
       <c r="X35" t="n">
-        <v>1852.047227313184</v>
+        <v>1852.047227313185</v>
       </c>
       <c r="Y35" t="n">
-        <v>1615.854423609285</v>
+        <v>1615.854423609286</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.7640580471561</v>
+        <v>955.7640580471557</v>
       </c>
       <c r="C36" t="n">
-        <v>781.3110287660292</v>
+        <v>781.3110287660287</v>
       </c>
       <c r="D36" t="n">
-        <v>632.376619104778</v>
+        <v>632.3766191047775</v>
       </c>
       <c r="E36" t="n">
-        <v>473.1391640993224</v>
+        <v>473.139164099322</v>
       </c>
       <c r="F36" t="n">
-        <v>326.6046061262075</v>
+        <v>326.604606126207</v>
       </c>
       <c r="G36" t="n">
-        <v>189.3801975165229</v>
+        <v>189.3801975165225</v>
       </c>
       <c r="H36" t="n">
         <v>90.55987688267433</v>
@@ -7014,25 +7014,25 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J36" t="n">
-        <v>66.04778189444178</v>
+        <v>190.8779068814465</v>
       </c>
       <c r="K36" t="n">
-        <v>167.997296045158</v>
+        <v>357.5099323341288</v>
       </c>
       <c r="L36" t="n">
-        <v>351.403540327433</v>
+        <v>908.0481184668284</v>
       </c>
       <c r="M36" t="n">
-        <v>638.7623737239275</v>
+        <v>1553.106306014639</v>
       </c>
       <c r="N36" t="n">
-        <v>1283.820561271738</v>
+        <v>1807.075217083766</v>
       </c>
       <c r="O36" t="n">
-        <v>1883.856398931101</v>
+        <v>2407.111054743129</v>
       </c>
       <c r="P36" t="n">
-        <v>2348.434991069233</v>
+        <v>2556.411505927724</v>
       </c>
       <c r="Q36" t="n">
         <v>2606.295707263881</v>
@@ -7044,16 +7044,16 @@
         <v>2453.219848663941</v>
       </c>
       <c r="T36" t="n">
-        <v>2257.105170892339</v>
+        <v>2257.105170892338</v>
       </c>
       <c r="U36" t="n">
         <v>2028.980658997655</v>
       </c>
       <c r="V36" t="n">
-        <v>1793.828550765913</v>
+        <v>1793.828550765912</v>
       </c>
       <c r="W36" t="n">
-        <v>1539.591194037711</v>
+        <v>1539.59119403771</v>
       </c>
       <c r="X36" t="n">
         <v>1331.739693832178</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.59396921944136</v>
+        <v>93.14764203920615</v>
       </c>
       <c r="C37" t="n">
-        <v>66.60431456344708</v>
+        <v>78.15798738321186</v>
       </c>
       <c r="D37" t="n">
-        <v>66.60431456344708</v>
+        <v>78.15798738321186</v>
       </c>
       <c r="E37" t="n">
-        <v>66.60431456344708</v>
+        <v>71.6174188852178</v>
       </c>
       <c r="F37" t="n">
-        <v>66.60431456344708</v>
+        <v>71.6174188852178</v>
       </c>
       <c r="G37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704834</v>
       </c>
       <c r="H37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704834</v>
       </c>
       <c r="I37" t="n">
-        <v>52.12591414527761</v>
+        <v>57.13901846704834</v>
       </c>
       <c r="J37" t="n">
         <v>52.12591414527761</v>
@@ -7099,13 +7099,13 @@
         <v>173.8886180936724</v>
       </c>
       <c r="L37" t="n">
-        <v>385.2293923188607</v>
+        <v>385.2293923188606</v>
       </c>
       <c r="M37" t="n">
-        <v>618.4477296707333</v>
+        <v>618.4477296707332</v>
       </c>
       <c r="N37" t="n">
-        <v>851.5552726508463</v>
+        <v>851.5552726508462</v>
       </c>
       <c r="O37" t="n">
         <v>1050.851522627638</v>
@@ -7120,25 +7120,25 @@
         <v>1216.211404918362</v>
       </c>
       <c r="S37" t="n">
-        <v>1165.887953669614</v>
+        <v>1011.941425397702</v>
       </c>
       <c r="T37" t="n">
-        <v>941.036035780445</v>
+        <v>941.0360357804449</v>
       </c>
       <c r="U37" t="n">
         <v>805.8403103381029</v>
       </c>
       <c r="V37" t="n">
-        <v>705.1023504041286</v>
+        <v>551.155822132216</v>
       </c>
       <c r="W37" t="n">
-        <v>558.0780358193159</v>
+        <v>261.7386520952554</v>
       </c>
       <c r="X37" t="n">
-        <v>484.0350131932112</v>
+        <v>187.6956294691507</v>
       </c>
       <c r="Y37" t="n">
-        <v>263.242434049681</v>
+        <v>120.8495785975332</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1383.201111817076</v>
+        <v>1383.201111817075</v>
       </c>
       <c r="C38" t="n">
-        <v>1168.185123148577</v>
+        <v>1168.185123148576</v>
       </c>
       <c r="D38" t="n">
-        <v>963.8659528137389</v>
+        <v>963.8659528137387</v>
       </c>
       <c r="E38" t="n">
-        <v>732.0242284874073</v>
+        <v>732.0242284874072</v>
       </c>
       <c r="F38" t="n">
-        <v>474.9848519697125</v>
+        <v>474.9848519697124</v>
       </c>
       <c r="G38" t="n">
         <v>212.2491496954707</v>
@@ -7172,28 +7172,28 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J38" t="n">
-        <v>107.09584579049</v>
+        <v>182.2884447865008</v>
       </c>
       <c r="K38" t="n">
-        <v>240.220042087863</v>
+        <v>315.4126410838737</v>
       </c>
       <c r="L38" t="n">
-        <v>442.2741410993664</v>
+        <v>517.4667400953771</v>
       </c>
       <c r="M38" t="n">
-        <v>698.7676953506771</v>
+        <v>1162.524927643188</v>
       </c>
       <c r="N38" t="n">
-        <v>1192.622533334974</v>
+        <v>1427.782624136872</v>
       </c>
       <c r="O38" t="n">
-        <v>1806.754772513923</v>
+        <v>2041.914863315822</v>
       </c>
       <c r="P38" t="n">
-        <v>2293.228047294109</v>
+        <v>2528.388138096007</v>
       </c>
       <c r="Q38" t="n">
-        <v>2581.327457215288</v>
+        <v>2606.295707263881</v>
       </c>
       <c r="R38" t="n">
         <v>2606.295707263881</v>
@@ -7211,13 +7211,13 @@
         <v>2270.388584300552</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.566457302351</v>
+        <v>2071.56645730235</v>
       </c>
       <c r="X38" t="n">
-        <v>1852.047227313184</v>
+        <v>1852.047227313183</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.854423609285</v>
+        <v>1615.854423609284</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>955.7640580471561</v>
+        <v>955.7640580471557</v>
       </c>
       <c r="C39" t="n">
-        <v>781.3110287660292</v>
+        <v>781.3110287660287</v>
       </c>
       <c r="D39" t="n">
-        <v>632.376619104778</v>
+        <v>632.3766191047775</v>
       </c>
       <c r="E39" t="n">
-        <v>473.1391640993224</v>
+        <v>473.139164099322</v>
       </c>
       <c r="F39" t="n">
-        <v>326.6046061262075</v>
+        <v>326.604606126207</v>
       </c>
       <c r="G39" t="n">
-        <v>189.3801975165229</v>
+        <v>189.3801975165225</v>
       </c>
       <c r="H39" t="n">
         <v>90.55987688267433</v>
@@ -7251,25 +7251,25 @@
         <v>52.12591414527761</v>
       </c>
       <c r="J39" t="n">
-        <v>66.04778189444178</v>
+        <v>66.04778189444175</v>
       </c>
       <c r="K39" t="n">
-        <v>167.997296045158</v>
+        <v>429.8178806876107</v>
       </c>
       <c r="L39" t="n">
-        <v>351.403540327433</v>
+        <v>908.0481184668284</v>
       </c>
       <c r="M39" t="n">
-        <v>638.7623737239275</v>
+        <v>1553.106306014639</v>
       </c>
       <c r="N39" t="n">
-        <v>1283.820561271738</v>
+        <v>1807.075217083766</v>
       </c>
       <c r="O39" t="n">
-        <v>1883.856398931101</v>
+        <v>2407.111054743129</v>
       </c>
       <c r="P39" t="n">
-        <v>2348.434991069233</v>
+        <v>2556.411505927724</v>
       </c>
       <c r="Q39" t="n">
         <v>2606.295707263881</v>
@@ -7281,16 +7281,16 @@
         <v>2453.219848663941</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.105170892339</v>
+        <v>2257.105170892338</v>
       </c>
       <c r="U39" t="n">
         <v>2028.980658997655</v>
       </c>
       <c r="V39" t="n">
-        <v>1793.828550765913</v>
+        <v>1793.828550765912</v>
       </c>
       <c r="W39" t="n">
-        <v>1539.591194037711</v>
+        <v>1539.59119403771</v>
       </c>
       <c r="X39" t="n">
         <v>1331.739693832178</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.59396921944118</v>
+        <v>231.7106086317768</v>
       </c>
       <c r="C40" t="n">
-        <v>66.60431456344698</v>
+        <v>216.7209539757827</v>
       </c>
       <c r="D40" t="n">
-        <v>66.60431456344698</v>
+        <v>66.60431456344692</v>
       </c>
       <c r="E40" t="n">
-        <v>66.60431456344698</v>
+        <v>66.60431456344692</v>
       </c>
       <c r="F40" t="n">
-        <v>66.60431456344698</v>
+        <v>66.60431456344692</v>
       </c>
       <c r="G40" t="n">
         <v>52.12591414527761</v>
@@ -7336,13 +7336,13 @@
         <v>173.8886180936724</v>
       </c>
       <c r="L40" t="n">
-        <v>385.2293923188607</v>
+        <v>385.2293923188606</v>
       </c>
       <c r="M40" t="n">
-        <v>618.4477296707333</v>
+        <v>618.4477296707332</v>
       </c>
       <c r="N40" t="n">
-        <v>851.5552726508463</v>
+        <v>851.5552726508462</v>
       </c>
       <c r="O40" t="n">
         <v>1050.851522627638</v>
@@ -7354,28 +7354,28 @@
         <v>1216.211404918362</v>
       </c>
       <c r="R40" t="n">
-        <v>1216.211404918362</v>
+        <v>1200.82784323902</v>
       </c>
       <c r="S40" t="n">
-        <v>1011.941425397702</v>
+        <v>1150.504391990272</v>
       </c>
       <c r="T40" t="n">
-        <v>787.0895075085323</v>
+        <v>1079.599002373015</v>
       </c>
       <c r="U40" t="n">
-        <v>651.8937820661903</v>
+        <v>944.4032769306731</v>
       </c>
       <c r="V40" t="n">
-        <v>397.2092938603034</v>
+        <v>689.7187887247862</v>
       </c>
       <c r="W40" t="n">
-        <v>250.1849792754902</v>
+        <v>400.3016186878256</v>
       </c>
       <c r="X40" t="n">
-        <v>176.1419566493856</v>
+        <v>326.2585960617211</v>
       </c>
       <c r="Y40" t="n">
-        <v>109.2959057777682</v>
+        <v>259.4125451901037</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817074</v>
       </c>
       <c r="C41" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148575</v>
       </c>
       <c r="D41" t="n">
-        <v>963.865952813738</v>
+        <v>963.8659528137373</v>
       </c>
       <c r="E41" t="n">
         <v>732.0242284874064</v>
       </c>
       <c r="F41" t="n">
-        <v>474.9848519697116</v>
+        <v>474.9848519697118</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2491496954707</v>
+        <v>212.2491496954706</v>
       </c>
       <c r="H41" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="I41" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="J41" t="n">
-        <v>107.09584579049</v>
+        <v>107.0958457904899</v>
       </c>
       <c r="K41" t="n">
-        <v>240.220042087863</v>
+        <v>240.2200420878629</v>
       </c>
       <c r="L41" t="n">
-        <v>442.2741410993664</v>
+        <v>442.2741410993661</v>
       </c>
       <c r="M41" t="n">
-        <v>698.7676953506771</v>
+        <v>927.364836841288</v>
       </c>
       <c r="N41" t="n">
-        <v>1343.825882898488</v>
+        <v>1192.622533334973</v>
       </c>
       <c r="O41" t="n">
-        <v>1806.754772513923</v>
+        <v>1806.754772513922</v>
       </c>
       <c r="P41" t="n">
-        <v>2293.228047294109</v>
+        <v>2293.228047294107</v>
       </c>
       <c r="Q41" t="n">
-        <v>2581.327457215288</v>
+        <v>2581.327457215287</v>
       </c>
       <c r="R41" t="n">
-        <v>2606.295707263881</v>
+        <v>2606.295707263879</v>
       </c>
       <c r="S41" t="n">
-        <v>2606.295707263881</v>
+        <v>2606.295707263879</v>
       </c>
       <c r="T41" t="n">
-        <v>2547.217674257753</v>
+        <v>2547.217674257751</v>
       </c>
       <c r="U41" t="n">
-        <v>2447.50494337221</v>
+        <v>2447.504943372208</v>
       </c>
       <c r="V41" t="n">
-        <v>2270.388584300552</v>
+        <v>2270.38858430055</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.56645730235</v>
+        <v>2071.566457302349</v>
       </c>
       <c r="X41" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313182</v>
       </c>
       <c r="Y41" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609283</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>189.3801975165225</v>
       </c>
       <c r="H42" t="n">
-        <v>90.55987688267433</v>
+        <v>90.5598768826743</v>
       </c>
       <c r="I42" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="J42" t="n">
-        <v>66.04778189444178</v>
+        <v>66.04778189444173</v>
       </c>
       <c r="K42" t="n">
-        <v>167.997296045158</v>
+        <v>429.8178806876107</v>
       </c>
       <c r="L42" t="n">
-        <v>351.403540327433</v>
+        <v>613.2241249698857</v>
       </c>
       <c r="M42" t="n">
-        <v>638.7623737239275</v>
+        <v>1237.828165061101</v>
       </c>
       <c r="N42" t="n">
-        <v>1283.820561271738</v>
+        <v>1491.797076130229</v>
       </c>
       <c r="O42" t="n">
-        <v>1883.856398931101</v>
+        <v>2091.832913789592</v>
       </c>
       <c r="P42" t="n">
-        <v>2348.434991069233</v>
+        <v>2556.411505927724</v>
       </c>
       <c r="Q42" t="n">
         <v>2606.295707263881</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.59396921944118</v>
+        <v>247.0941703111196</v>
       </c>
       <c r="C43" t="n">
-        <v>66.60431456344698</v>
+        <v>232.1045156551255</v>
       </c>
       <c r="D43" t="n">
-        <v>66.60431456344698</v>
+        <v>232.1045156551255</v>
       </c>
       <c r="E43" t="n">
-        <v>66.60431456344698</v>
+        <v>232.1045156551255</v>
       </c>
       <c r="F43" t="n">
-        <v>66.60431456344698</v>
+        <v>85.2145681572151</v>
       </c>
       <c r="G43" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="H43" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="I43" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="J43" t="n">
-        <v>52.12591414527761</v>
+        <v>52.12591414527758</v>
       </c>
       <c r="K43" t="n">
         <v>173.8886180936724</v>
       </c>
       <c r="L43" t="n">
-        <v>385.2293923188607</v>
+        <v>385.2293923188606</v>
       </c>
       <c r="M43" t="n">
-        <v>618.4477296707333</v>
+        <v>618.4477296707332</v>
       </c>
       <c r="N43" t="n">
-        <v>851.5552726508463</v>
+        <v>851.5552726508462</v>
       </c>
       <c r="O43" t="n">
         <v>1050.851522627638</v>
@@ -7591,28 +7591,28 @@
         <v>1216.211404918362</v>
       </c>
       <c r="R43" t="n">
-        <v>1204.657732098597</v>
+        <v>1216.211404918362</v>
       </c>
       <c r="S43" t="n">
-        <v>1000.387752577936</v>
+        <v>1165.887953669614</v>
       </c>
       <c r="T43" t="n">
-        <v>929.4823629606797</v>
+        <v>1094.982564052358</v>
       </c>
       <c r="U43" t="n">
-        <v>794.2866375183377</v>
+        <v>959.7868386100158</v>
       </c>
       <c r="V43" t="n">
-        <v>539.6021493124508</v>
+        <v>705.102350404129</v>
       </c>
       <c r="W43" t="n">
-        <v>404.1315075474029</v>
+        <v>415.6851803671684</v>
       </c>
       <c r="X43" t="n">
-        <v>330.0884849212983</v>
+        <v>341.6421577410638</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.2959057777682</v>
+        <v>274.7961068694465</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1383.201111817075</v>
+        <v>1383.201111817076</v>
       </c>
       <c r="C44" t="n">
-        <v>1168.185123148576</v>
+        <v>1168.185123148577</v>
       </c>
       <c r="D44" t="n">
-        <v>963.8659528137387</v>
+        <v>963.8659528137395</v>
       </c>
       <c r="E44" t="n">
-        <v>732.0242284874075</v>
+        <v>732.024228487408</v>
       </c>
       <c r="F44" t="n">
-        <v>474.9848519697127</v>
+        <v>474.9848519697132</v>
       </c>
       <c r="G44" t="n">
         <v>212.2491496954707</v>
       </c>
       <c r="H44" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="I44" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J44" t="n">
         <v>107.09584579049</v>
       </c>
       <c r="K44" t="n">
-        <v>240.220042087863</v>
+        <v>240.2200420878629</v>
       </c>
       <c r="L44" t="n">
-        <v>442.2741410993664</v>
+        <v>442.2741410993663</v>
       </c>
       <c r="M44" t="n">
-        <v>698.7676953506771</v>
+        <v>698.7676953506768</v>
       </c>
       <c r="N44" t="n">
-        <v>1192.622533334975</v>
+        <v>1343.825882898487</v>
       </c>
       <c r="O44" t="n">
-        <v>1806.754772513924</v>
+        <v>1957.958122077436</v>
       </c>
       <c r="P44" t="n">
-        <v>2293.22804729411</v>
+        <v>2444.431396857622</v>
       </c>
       <c r="Q44" t="n">
-        <v>2581.327457215289</v>
+        <v>2581.327457215288</v>
       </c>
       <c r="R44" t="n">
         <v>2606.295707263881</v>
@@ -7676,22 +7676,22 @@
         <v>2606.295707263881</v>
       </c>
       <c r="T44" t="n">
-        <v>2547.217674257754</v>
+        <v>2547.217674257753</v>
       </c>
       <c r="U44" t="n">
-        <v>2447.504943372211</v>
+        <v>2447.50494337221</v>
       </c>
       <c r="V44" t="n">
         <v>2270.388584300552</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.56645730235</v>
+        <v>2071.566457302351</v>
       </c>
       <c r="X44" t="n">
-        <v>1852.047227313183</v>
+        <v>1852.047227313184</v>
       </c>
       <c r="Y44" t="n">
-        <v>1615.854423609284</v>
+        <v>1615.854423609285</v>
       </c>
     </row>
     <row r="45">
@@ -7716,34 +7716,34 @@
         <v>326.6046061262074</v>
       </c>
       <c r="G45" t="n">
-        <v>189.3801975165226</v>
+        <v>189.3801975165225</v>
       </c>
       <c r="H45" t="n">
-        <v>90.55987688267436</v>
+        <v>90.55987688267433</v>
       </c>
       <c r="I45" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J45" t="n">
-        <v>66.04778189444181</v>
+        <v>190.8779068814465</v>
       </c>
       <c r="K45" t="n">
-        <v>167.997296045158</v>
+        <v>554.6480056746154</v>
       </c>
       <c r="L45" t="n">
-        <v>351.403540327433</v>
+        <v>738.0542499568904</v>
       </c>
       <c r="M45" t="n">
-        <v>638.7623737239272</v>
+        <v>1383.112437504701</v>
       </c>
       <c r="N45" t="n">
-        <v>1283.820561271738</v>
+        <v>1637.081348573828</v>
       </c>
       <c r="O45" t="n">
-        <v>1883.856398931101</v>
+        <v>2237.117186233191</v>
       </c>
       <c r="P45" t="n">
-        <v>2348.434991069233</v>
+        <v>2386.417637417785</v>
       </c>
       <c r="Q45" t="n">
         <v>2606.295707263881</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.59396921944121</v>
+        <v>247.0941703111197</v>
       </c>
       <c r="C46" t="n">
-        <v>66.60431456344701</v>
+        <v>213.4942620613572</v>
       </c>
       <c r="D46" t="n">
-        <v>66.60431456344701</v>
+        <v>213.4942620613572</v>
       </c>
       <c r="E46" t="n">
-        <v>66.60431456344701</v>
+        <v>213.4942620613572</v>
       </c>
       <c r="F46" t="n">
-        <v>66.60431456344701</v>
+        <v>66.60431456344689</v>
       </c>
       <c r="G46" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="H46" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="I46" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="J46" t="n">
-        <v>52.12591414527763</v>
+        <v>52.12591414527761</v>
       </c>
       <c r="K46" t="n">
-        <v>173.8886180936725</v>
+        <v>173.8886180936724</v>
       </c>
       <c r="L46" t="n">
-        <v>385.2293923188607</v>
+        <v>385.2293923188606</v>
       </c>
       <c r="M46" t="n">
-        <v>618.4477296707335</v>
+        <v>618.4477296707332</v>
       </c>
       <c r="N46" t="n">
-        <v>851.5552726508464</v>
+        <v>851.5552726508462</v>
       </c>
       <c r="O46" t="n">
         <v>1050.851522627638</v>
@@ -7825,31 +7825,31 @@
         <v>1197.86321174499</v>
       </c>
       <c r="Q46" t="n">
-        <v>1216.211404918363</v>
+        <v>1216.211404918362</v>
       </c>
       <c r="R46" t="n">
-        <v>1093.913062653109</v>
+        <v>1216.211404918362</v>
       </c>
       <c r="S46" t="n">
-        <v>1000.387752577936</v>
+        <v>1165.887953669614</v>
       </c>
       <c r="T46" t="n">
-        <v>929.4823629606797</v>
+        <v>1094.982564052358</v>
       </c>
       <c r="U46" t="n">
-        <v>794.2866375183377</v>
+        <v>805.8403103381031</v>
       </c>
       <c r="V46" t="n">
-        <v>693.5486775843635</v>
+        <v>705.1023504041291</v>
       </c>
       <c r="W46" t="n">
-        <v>558.0780358193156</v>
+        <v>569.6317086390812</v>
       </c>
       <c r="X46" t="n">
-        <v>330.0884849212983</v>
+        <v>495.5886860129767</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.2959057777682</v>
+        <v>428.7426351413594</v>
       </c>
     </row>
   </sheetData>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>200.9222468714782</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.9222468714794</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,22 +8930,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>339.5161471632623</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>284.5267984361843</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>184.2175947150165</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>94.28834794695709</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9012,16 +9012,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>307.8704850172977</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>84.55722840660133</v>
       </c>
       <c r="O15" t="n">
         <v>331.3767102300326</v>
       </c>
       <c r="P15" t="n">
-        <v>95.1495120292409</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9167,22 +9167,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>339.5161471632623</v>
       </c>
       <c r="M17" t="n">
-        <v>184.2175947150164</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>304.0757828023249</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>74.73936358081664</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>84.5572284066011</v>
+        <v>287.0769430646521</v>
       </c>
       <c r="O18" t="n">
-        <v>331.3767102300326</v>
+        <v>128.8569955719818</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>134.8795371335926</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>284.5267984361843</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>184.2175947150165</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>40.4959652784448</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>84.5572284066011</v>
+        <v>287.0769430646521</v>
       </c>
       <c r="O21" t="n">
         <v>331.3767102300326</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>115.9430539818862</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>166.343070508243</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>290.3412131628609</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>207.240327774181</v>
+        <v>309.8901975290014</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>40.4959652784448</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>364.1667787881493</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>158.7761453030887</v>
       </c>
       <c r="N24" t="n">
-        <v>101.7655467390892</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>337.1911249567094</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>405.3482172585593</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>169.3273446312973</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>40.49596527844477</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>291.9868506536299</v>
       </c>
       <c r="N27" t="n">
-        <v>449.560409433504</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>81.20280468739452</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>197.6552889683321</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>251.6266296198253</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>449.560409433504</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>405.3482172585597</v>
+        <v>405.3482172585605</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>449.560409433504</v>
+        <v>247.930165046712</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>84.68333854865324</v>
       </c>
       <c r="N35" t="n">
-        <v>230.9062035258708</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>40.4959652784448</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>65.33587000198608</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>54.52073622271314</v>
+        <v>415.8332151634364</v>
       </c>
       <c r="N36" t="n">
-        <v>395.0396732107909</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>75.95212019799072</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>392.4895285823231</v>
       </c>
       <c r="N38" t="n">
-        <v>230.9062035258708</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>40.4959652784448</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>297.8020136332756</v>
       </c>
       <c r="M39" t="n">
-        <v>54.52073622271314</v>
+        <v>415.8332151634364</v>
       </c>
       <c r="N39" t="n">
-        <v>395.0396732107909</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>230.9062035258701</v>
       </c>
       <c r="N41" t="n">
-        <v>383.6368596506319</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>228.0695251379841</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>54.52073622271314</v>
+        <v>395.1724601567748</v>
       </c>
       <c r="N42" t="n">
-        <v>395.0396732107909</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>230.9062035258717</v>
+        <v>383.636859650632</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>59.58433453514391</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>54.52073622271291</v>
+        <v>415.8332151634364</v>
       </c>
       <c r="N45" t="n">
-        <v>395.0396732107911</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>171.7109782928669</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>279.141845777424</v>
       </c>
       <c r="C11" t="n">
-        <v>261.680895884951</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>251.0910457346264</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>278.3383741862053</v>
+        <v>278.3383741862052</v>
       </c>
       <c r="F11" t="n">
-        <v>303.2840498556549</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>308.9234123546362</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>207.3370702978283</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.3023197792035</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>147.5306706798245</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>217.4972808872653</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.6489728313564</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>266.1391047924125</v>
       </c>
       <c r="Y11" t="n">
-        <v>213.5896633897862</v>
+        <v>282.645942769997</v>
       </c>
     </row>
     <row r="12">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>251.0910457346264</v>
       </c>
       <c r="E14" t="n">
-        <v>275.9449108426324</v>
+        <v>252.8290424914911</v>
       </c>
       <c r="F14" t="n">
-        <v>303.2840498556549</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>308.9234123546362</v>
       </c>
       <c r="H14" t="n">
-        <v>207.3370702978282</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>282.645942769997</v>
       </c>
     </row>
     <row r="15">
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>22.56458067128634</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.56458067128779</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>22.5645806712875</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>22.56458067128543</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1200993.237594149</v>
+        <v>1200993.237594148</v>
       </c>
     </row>
     <row r="6">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>746153.5340830687</v>
+        <v>746153.5340830686</v>
       </c>
       <c r="F3" t="n">
-        <v>53805.21405764105</v>
+        <v>53805.21405764114</v>
       </c>
       <c r="G3" t="n">
         <v>63446.95721973106</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1546.174978532614</v>
+        <v>1546.174978532554</v>
       </c>
       <c r="J3" t="n">
-        <v>96855.72589324035</v>
+        <v>96855.72589324044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63446.95721973104</v>
+        <v>63446.95721973108</v>
       </c>
       <c r="M3" t="n">
-        <v>80357.16505209077</v>
+        <v>80357.16505209066</v>
       </c>
       <c r="N3" t="n">
-        <v>45993.55612927227</v>
+        <v>45993.55612927238</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>142908.810353844</v>
+        <v>142908.8103538441</v>
       </c>
       <c r="F4" t="n">
-        <v>168497.4496037432</v>
+        <v>168497.4496037433</v>
       </c>
       <c r="G4" t="n">
         <v>217171.7787696233</v>
@@ -26445,19 +26445,19 @@
         <v>207063.1162296207</v>
       </c>
       <c r="L4" t="n">
-        <v>207063.1162296207</v>
+        <v>207063.1162296208</v>
       </c>
       <c r="M4" t="n">
         <v>213872.961061016</v>
       </c>
       <c r="N4" t="n">
-        <v>213872.961061016</v>
+        <v>213872.9610610161</v>
       </c>
       <c r="O4" t="n">
         <v>213872.961061016</v>
       </c>
       <c r="P4" t="n">
-        <v>213872.961061016</v>
+        <v>213872.9610610161</v>
       </c>
     </row>
     <row r="5">
@@ -26488,7 +26488,7 @@
         <v>63542.82889078469</v>
       </c>
       <c r="I5" t="n">
-        <v>63896.34530616663</v>
+        <v>63896.34530616662</v>
       </c>
       <c r="J5" t="n">
         <v>77694.4951296895</v>
@@ -26500,16 +26500,16 @@
         <v>77694.4951296895</v>
       </c>
       <c r="M5" t="n">
-        <v>67543.39395183159</v>
+        <v>67543.39395183157</v>
       </c>
       <c r="N5" t="n">
         <v>67543.39395183159</v>
       </c>
       <c r="O5" t="n">
+        <v>67543.39395183156</v>
+      </c>
+      <c r="P5" t="n">
         <v>67543.39395183159</v>
-      </c>
-      <c r="P5" t="n">
-        <v>67543.3939518316</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480652.2202723928</v>
+        <v>-480656.633850261</v>
       </c>
       <c r="C6" t="n">
-        <v>-480652.2202723928</v>
+        <v>-480656.633850261</v>
       </c>
       <c r="D6" t="n">
-        <v>-480652.2202723928</v>
+        <v>-480656.633850261</v>
       </c>
       <c r="E6" t="n">
-        <v>-934520.457554234</v>
+        <v>-934883.4822120629</v>
       </c>
       <c r="F6" t="n">
-        <v>-279178.089744037</v>
+        <v>-279396.092143264</v>
       </c>
       <c r="G6" t="n">
-        <v>-344161.564880139</v>
+        <v>-344166.0552316927</v>
       </c>
       <c r="H6" t="n">
-        <v>-280714.607660408</v>
+        <v>-280719.0980119616</v>
       </c>
       <c r="I6" t="n">
         <v>-283406.6049190732</v>
       </c>
       <c r="J6" t="n">
-        <v>-381613.3372525505</v>
+        <v>-381613.3372525506</v>
       </c>
       <c r="K6" t="n">
         <v>-284757.6113593102</v>
@@ -26552,16 +26552,16 @@
         <v>-348204.5685790413</v>
       </c>
       <c r="M6" t="n">
-        <v>-361773.5200649383</v>
+        <v>-361773.5200649382</v>
       </c>
       <c r="N6" t="n">
-        <v>-327409.9111421198</v>
+        <v>-327409.91114212</v>
       </c>
       <c r="O6" t="n">
         <v>-281416.3550128476</v>
       </c>
       <c r="P6" t="n">
-        <v>-281416.3550128476</v>
+        <v>-281416.3550128477</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="F2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="G2" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="H2" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="I2" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="J2" t="n">
         <v>79.30869652466382</v>
@@ -26713,7 +26713,7 @@
         <v>79.30869652466382</v>
       </c>
       <c r="L2" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="M2" t="n">
         <v>152.4070629891935</v>
@@ -26722,10 +26722,10 @@
         <v>152.4070629891936</v>
       </c>
       <c r="O2" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="P2" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
     </row>
     <row r="3">
@@ -26747,37 +26747,37 @@
         <v>693.3481570175269</v>
       </c>
       <c r="F3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175268</v>
       </c>
       <c r="G3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175268</v>
       </c>
       <c r="H3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175268</v>
       </c>
       <c r="I3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175268</v>
       </c>
       <c r="J3" t="n">
         <v>693.3481570175269</v>
       </c>
       <c r="K3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175268</v>
       </c>
       <c r="L3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175268</v>
       </c>
       <c r="M3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175268</v>
       </c>
       <c r="N3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175268</v>
       </c>
       <c r="O3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175268</v>
       </c>
       <c r="P3" t="n">
-        <v>693.3481570175269</v>
+        <v>693.3481570175268</v>
       </c>
     </row>
     <row r="4">
@@ -26796,25 +26796,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.8264439505632</v>
+        <v>355.8264439505629</v>
       </c>
       <c r="F4" t="n">
-        <v>543.6111966698314</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="G4" t="n">
-        <v>543.6111966698314</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="H4" t="n">
-        <v>543.6111966698314</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="I4" t="n">
-        <v>549.4256113965082</v>
+        <v>549.4256113965079</v>
       </c>
       <c r="J4" t="n">
         <v>919.6069489897278</v>
       </c>
       <c r="K4" t="n">
-        <v>919.6069489897278</v>
+        <v>919.6069489897279</v>
       </c>
       <c r="L4" t="n">
         <v>919.6069489897279</v>
@@ -26826,10 +26826,10 @@
         <v>651.5739268159701</v>
       </c>
       <c r="O4" t="n">
+        <v>651.5739268159698</v>
+      </c>
+      <c r="P4" t="n">
         <v>651.5739268159701</v>
-      </c>
-      <c r="P4" t="n">
-        <v>651.5739268159704</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>79.30869652466382</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="M2" t="n">
-        <v>73.09836646452969</v>
+        <v>73.09836646452965</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.8264439505632</v>
+        <v>355.8264439505629</v>
       </c>
       <c r="F4" t="n">
-        <v>187.7847527192682</v>
+        <v>187.7847527192685</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.814414726676773</v>
+        <v>5.814414726676546</v>
       </c>
       <c r="J4" t="n">
-        <v>370.1813375932196</v>
+        <v>370.18133759322</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>87.79342177680542</v>
+        <v>87.79342177680508</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192682</v>
+        <v>187.7847527192685</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>79.30869652466382</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>355.8264439505632</v>
+        <v>355.8264439505629</v>
       </c>
       <c r="N4" t="n">
-        <v>187.7847527192682</v>
+        <v>187.7847527192685</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="C11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="D11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="E11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="F11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="G11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="H11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="I11" t="n">
         <v>103.0173777174684</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="T11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="U11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="V11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="W11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="X11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="C12" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="E12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="F12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="G12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="H12" t="n">
         <v>97.83211742750973</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>79.52712799203134</v>
       </c>
       <c r="U12" t="n">
-        <v>79.52712799203033</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="W12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="X12" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="Y12" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,40 +28245,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="C13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="D13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="E13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="F13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="G13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="H13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="I13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="J13" t="n">
-        <v>4.962973278553008</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>25.90102793811201</v>
+        <v>30.86400121666344</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28287,34 +28287,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="S13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="T13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="U13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="V13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="W13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="X13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="C14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="D14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="E14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="F14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="G14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="H14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="I14" t="n">
         <v>103.0173777174684</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="T14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="U14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="V14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="W14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="X14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="C15" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>70.15615238294298</v>
       </c>
       <c r="G15" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="H15" t="n">
-        <v>70.15615238294308</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002276</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28466,7 +28466,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="C16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="D16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="E16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="F16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="G16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="H16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="J16" t="n">
-        <v>4.962973278553008</v>
+        <v>4.962973278553022</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.90102793811016</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="O16" t="n">
-        <v>25.9010279381113</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.5919958860565</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="S16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="T16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="U16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="V16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="W16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="X16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.5919958860565</v>
+        <v>103.5919958860566</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="C17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="D17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="E17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="F17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="G17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="H17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="I17" t="n">
         <v>103.0173777174684</v>
@@ -28615,22 +28615,22 @@
         <v>145.503803744891</v>
       </c>
       <c r="T17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="U17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="V17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="W17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="X17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="Y17" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
     </row>
     <row r="18">
@@ -28643,10 +28643,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>87.43489506212394</v>
       </c>
       <c r="D18" t="n">
-        <v>125.4845181721462</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.04962311002276</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>98.31123444738813</v>
       </c>
       <c r="D19" t="n">
-        <v>138.4365077063091</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28743,7 +28743,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J19" t="n">
-        <v>4.962973278553008</v>
+        <v>4.962973278553022</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,25 +28767,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.0753588426008</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>182.9006924107203</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="V19" t="n">
-        <v>182.9006924107203</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="X19" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="C20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="D20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="E20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="F20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="G20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="H20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="I20" t="n">
         <v>103.0173777174684</v>
@@ -28852,22 +28852,22 @@
         <v>145.503803744891</v>
       </c>
       <c r="T20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="U20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="V20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="W20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="X20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="Y20" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.0308102202188</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>147.2478580900151</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,16 +28889,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H21" t="n">
         <v>97.83211742750973</v>
       </c>
       <c r="I21" t="n">
-        <v>38.04962311002275</v>
+        <v>38.04962311002276</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>100.2054954971578</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28980,7 +28980,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J22" t="n">
-        <v>4.962973278553008</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="T22" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="U22" t="n">
-        <v>98.3112344473885</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>182.9006924107203</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>182.9006924107204</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="C23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="D23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="E23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="F23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="G23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="H23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="I23" t="n">
         <v>103.0173777174684</v>
@@ -29089,22 +29089,22 @@
         <v>145.503803744891</v>
       </c>
       <c r="T23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="U23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="V23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="W23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="X23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="Y23" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
     </row>
     <row r="24">
@@ -29120,22 +29120,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>113.0903763776767</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.852164523588</v>
       </c>
       <c r="H24" t="n">
         <v>97.83211742750973</v>
       </c>
       <c r="I24" t="n">
-        <v>38.04962311002275</v>
+        <v>17.66368813536764</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.61117413818991</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.7406794031812</v>
@@ -29217,7 +29217,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J25" t="n">
-        <v>4.962973278553008</v>
+        <v>4.962973278553022</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S25" t="n">
-        <v>182.9006924107203</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="U25" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>88.37170423521042</v>
       </c>
       <c r="X25" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.9006924107203</v>
+        <v>182.9006924107204</v>
       </c>
     </row>
     <row r="26">
@@ -29454,7 +29454,7 @@
         <v>79.30869652466382</v>
       </c>
       <c r="J28" t="n">
-        <v>79.30869652466373</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="K28" t="n">
         <v>79.30869652466382</v>
@@ -29694,7 +29694,7 @@
         <v>79.30869652466382</v>
       </c>
       <c r="K31" t="n">
-        <v>79.30869652466373</v>
+        <v>79.30869652466382</v>
       </c>
       <c r="L31" t="n">
         <v>79.30869652466382</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="C32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="D32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="E32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="F32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="G32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="H32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="I32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="T32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="U32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="V32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="W32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="X32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="C34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="D34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="E34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="F34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="G34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="H34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="I34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="J34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="K34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="L34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="M34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466336</v>
       </c>
       <c r="N34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="O34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="P34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="R34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="S34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="T34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="U34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="V34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="W34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="X34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.3086965246638</v>
+        <v>79.30869652466384</v>
       </c>
     </row>
     <row r="35">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>152.4070629891935</v>
       </c>
       <c r="C37" t="n">
         <v>152.4070629891935</v>
@@ -30150,7 +30150,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>139.958799833555</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -30165,7 +30165,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J37" t="n">
-        <v>4.962973278553008</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>121.0753588426008</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>152.4070629891935</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>152.4070629891935</v>
       </c>
       <c r="V37" t="n">
-        <v>152.4070629891935</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>140.9689268976264</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>152.4070629891935</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>152.4070629891935</v>
       </c>
     </row>
     <row r="38">
@@ -30384,7 +30384,7 @@
         <v>152.4070629891936</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30402,7 +30402,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J40" t="n">
-        <v>4.962973278553008</v>
+        <v>4.962973278553022</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,13 +30426,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.0753588426008</v>
+        <v>105.8456327800517</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>152.4070629891936</v>
       </c>
       <c r="U40" t="n">
         <v>152.4070629891936</v>
@@ -30441,7 +30441,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>140.9689268976259</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>152.4070629891936</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="C41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="D41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="E41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="F41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="G41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="H41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="I41" t="n">
         <v>103.0173777174684</v>
@@ -30511,22 +30511,22 @@
         <v>145.503803744891</v>
       </c>
       <c r="T41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="U41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="V41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="W41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="X41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="C43" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -30627,10 +30627,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>152.4070629891936</v>
+        <v>133.9829119313631</v>
       </c>
       <c r="H43" t="n">
         <v>151.1108692686996</v>
@@ -30639,7 +30639,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J43" t="n">
-        <v>4.962973278553008</v>
+        <v>4.962973278553022</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.6372227510332</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="T43" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="U43" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="C44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="D44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="E44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="F44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="G44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="H44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="I44" t="n">
         <v>103.0173777174684</v>
@@ -30748,22 +30748,22 @@
         <v>145.503803744891</v>
       </c>
       <c r="T44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="U44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="V44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="W44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="X44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>152.4070629891936</v>
+        <v>133.982911931363</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30864,10 +30864,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="H46" t="n">
         <v>151.1108692686996</v>
@@ -30876,7 +30876,7 @@
         <v>117.8505453630947</v>
       </c>
       <c r="J46" t="n">
-        <v>4.962973278553008</v>
+        <v>4.962973278553022</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>121.0753588426008</v>
       </c>
       <c r="S46" t="n">
-        <v>109.6372227510331</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="T46" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="U46" t="n">
-        <v>152.4070629891936</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="W46" t="n">
-        <v>152.4070629891936</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>152.4070629891937</v>
       </c>
     </row>
   </sheetData>
@@ -31990,7 +31990,7 @@
         <v>2.787329274442317</v>
       </c>
       <c r="H14" t="n">
-        <v>28.54573593188239</v>
+        <v>28.54573593188238</v>
       </c>
       <c r="I14" t="n">
         <v>107.4585118529375</v>
@@ -31999,31 +31999,31 @@
         <v>236.5710880066988</v>
       </c>
       <c r="K14" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938421</v>
       </c>
       <c r="L14" t="n">
         <v>439.8614644765563</v>
       </c>
       <c r="M14" t="n">
-        <v>489.4306314609199</v>
+        <v>489.4306314609198</v>
       </c>
       <c r="N14" t="n">
         <v>497.3501307619291</v>
       </c>
       <c r="O14" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891932</v>
       </c>
       <c r="P14" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263985</v>
       </c>
       <c r="Q14" t="n">
         <v>301.0002041854329</v>
       </c>
       <c r="R14" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356873</v>
       </c>
       <c r="S14" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135435</v>
       </c>
       <c r="T14" t="n">
         <v>12.20153389887125</v>
@@ -32072,7 +32072,7 @@
         <v>14.40332680898674</v>
       </c>
       <c r="I15" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139232</v>
       </c>
       <c r="J15" t="n">
         <v>140.9001193425901</v>
@@ -32081,34 +32081,34 @@
         <v>240.8207461973046</v>
       </c>
       <c r="L15" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882327</v>
       </c>
       <c r="M15" t="n">
-        <v>377.8747455745521</v>
+        <v>377.874745574552</v>
       </c>
       <c r="N15" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885125</v>
       </c>
       <c r="O15" t="n">
         <v>354.8307308842432</v>
       </c>
       <c r="P15" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644253</v>
       </c>
       <c r="Q15" t="n">
         <v>190.3698562437557</v>
       </c>
       <c r="R15" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358597</v>
       </c>
       <c r="S15" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895494</v>
       </c>
       <c r="T15" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934971</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.0981153052383293</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,19 +32151,19 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I16" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416359</v>
       </c>
       <c r="J16" t="n">
-        <v>88.39620683811977</v>
+        <v>88.39620683811975</v>
       </c>
       <c r="K16" t="n">
         <v>145.2621220767867</v>
       </c>
       <c r="L16" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600759</v>
       </c>
       <c r="M16" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713641</v>
       </c>
       <c r="N16" t="n">
         <v>191.3299922471481</v>
@@ -32175,19 +32175,19 @@
         <v>151.2180964091995</v>
       </c>
       <c r="Q16" t="n">
-        <v>104.6955717096466</v>
+        <v>104.6955717096465</v>
       </c>
       <c r="R16" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456863</v>
       </c>
       <c r="S16" t="n">
-        <v>21.78931831151801</v>
+        <v>21.789318311518</v>
       </c>
       <c r="T16" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003893</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877319</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>2.787329274442317</v>
       </c>
       <c r="H17" t="n">
-        <v>28.54573593188239</v>
+        <v>28.54573593188238</v>
       </c>
       <c r="I17" t="n">
         <v>107.4585118529375</v>
@@ -32236,31 +32236,31 @@
         <v>236.5710880066988</v>
       </c>
       <c r="K17" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938421</v>
       </c>
       <c r="L17" t="n">
         <v>439.8614644765563</v>
       </c>
       <c r="M17" t="n">
-        <v>489.4306314609199</v>
+        <v>489.4306314609198</v>
       </c>
       <c r="N17" t="n">
         <v>497.3501307619291</v>
       </c>
       <c r="O17" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891932</v>
       </c>
       <c r="P17" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263985</v>
       </c>
       <c r="Q17" t="n">
         <v>301.0002041854329</v>
       </c>
       <c r="R17" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356873</v>
       </c>
       <c r="S17" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135435</v>
       </c>
       <c r="T17" t="n">
         <v>12.20153389887125</v>
@@ -32309,7 +32309,7 @@
         <v>14.40332680898674</v>
       </c>
       <c r="I18" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139232</v>
       </c>
       <c r="J18" t="n">
         <v>140.9001193425901</v>
@@ -32318,34 +32318,34 @@
         <v>240.8207461973046</v>
       </c>
       <c r="L18" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882327</v>
       </c>
       <c r="M18" t="n">
-        <v>377.8747455745521</v>
+        <v>377.874745574552</v>
       </c>
       <c r="N18" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885125</v>
       </c>
       <c r="O18" t="n">
         <v>354.8307308842432</v>
       </c>
       <c r="P18" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644253</v>
       </c>
       <c r="Q18" t="n">
         <v>190.3698562437557</v>
       </c>
       <c r="R18" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358597</v>
       </c>
       <c r="S18" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895494</v>
       </c>
       <c r="T18" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934971</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.0981153052383293</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,19 +32388,19 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I19" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416359</v>
       </c>
       <c r="J19" t="n">
-        <v>88.39620683811977</v>
+        <v>88.39620683811975</v>
       </c>
       <c r="K19" t="n">
         <v>145.2621220767867</v>
       </c>
       <c r="L19" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600759</v>
       </c>
       <c r="M19" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713641</v>
       </c>
       <c r="N19" t="n">
         <v>191.3299922471481</v>
@@ -32412,19 +32412,19 @@
         <v>151.2180964091995</v>
       </c>
       <c r="Q19" t="n">
-        <v>104.6955717096466</v>
+        <v>104.6955717096465</v>
       </c>
       <c r="R19" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456863</v>
       </c>
       <c r="S19" t="n">
-        <v>21.78931831151801</v>
+        <v>21.789318311518</v>
       </c>
       <c r="T19" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003893</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877319</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>2.787329274442317</v>
       </c>
       <c r="H20" t="n">
-        <v>28.54573593188239</v>
+        <v>28.54573593188238</v>
       </c>
       <c r="I20" t="n">
         <v>107.4585118529375</v>
@@ -32473,31 +32473,31 @@
         <v>236.5710880066988</v>
       </c>
       <c r="K20" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938421</v>
       </c>
       <c r="L20" t="n">
         <v>439.8614644765563</v>
       </c>
       <c r="M20" t="n">
-        <v>489.4306314609199</v>
+        <v>489.4306314609198</v>
       </c>
       <c r="N20" t="n">
         <v>497.3501307619291</v>
       </c>
       <c r="O20" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891932</v>
       </c>
       <c r="P20" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263985</v>
       </c>
       <c r="Q20" t="n">
         <v>301.0002041854329</v>
       </c>
       <c r="R20" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356873</v>
       </c>
       <c r="S20" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135435</v>
       </c>
       <c r="T20" t="n">
         <v>12.20153389887125</v>
@@ -32546,7 +32546,7 @@
         <v>14.40332680898674</v>
       </c>
       <c r="I21" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139232</v>
       </c>
       <c r="J21" t="n">
         <v>140.9001193425901</v>
@@ -32555,34 +32555,34 @@
         <v>240.8207461973046</v>
       </c>
       <c r="L21" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882327</v>
       </c>
       <c r="M21" t="n">
-        <v>377.8747455745521</v>
+        <v>377.874745574552</v>
       </c>
       <c r="N21" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885125</v>
       </c>
       <c r="O21" t="n">
         <v>354.8307308842432</v>
       </c>
       <c r="P21" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644253</v>
       </c>
       <c r="Q21" t="n">
         <v>190.3698562437557</v>
       </c>
       <c r="R21" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358597</v>
       </c>
       <c r="S21" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895494</v>
       </c>
       <c r="T21" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934971</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.0981153052383293</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,19 +32625,19 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I22" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416359</v>
       </c>
       <c r="J22" t="n">
-        <v>88.39620683811977</v>
+        <v>88.39620683811975</v>
       </c>
       <c r="K22" t="n">
         <v>145.2621220767867</v>
       </c>
       <c r="L22" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600759</v>
       </c>
       <c r="M22" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713641</v>
       </c>
       <c r="N22" t="n">
         <v>191.3299922471481</v>
@@ -32649,19 +32649,19 @@
         <v>151.2180964091995</v>
       </c>
       <c r="Q22" t="n">
-        <v>104.6955717096466</v>
+        <v>104.6955717096465</v>
       </c>
       <c r="R22" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456863</v>
       </c>
       <c r="S22" t="n">
-        <v>21.78931831151801</v>
+        <v>21.789318311518</v>
       </c>
       <c r="T22" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003893</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877319</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>2.787329274442317</v>
       </c>
       <c r="H23" t="n">
-        <v>28.54573593188239</v>
+        <v>28.54573593188238</v>
       </c>
       <c r="I23" t="n">
         <v>107.4585118529375</v>
@@ -32710,31 +32710,31 @@
         <v>236.5710880066988</v>
       </c>
       <c r="K23" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938421</v>
       </c>
       <c r="L23" t="n">
         <v>439.8614644765563</v>
       </c>
       <c r="M23" t="n">
-        <v>489.4306314609199</v>
+        <v>489.4306314609198</v>
       </c>
       <c r="N23" t="n">
         <v>497.3501307619291</v>
       </c>
       <c r="O23" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891932</v>
       </c>
       <c r="P23" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263985</v>
       </c>
       <c r="Q23" t="n">
         <v>301.0002041854329</v>
       </c>
       <c r="R23" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356873</v>
       </c>
       <c r="S23" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135435</v>
       </c>
       <c r="T23" t="n">
         <v>12.20153389887125</v>
@@ -32783,7 +32783,7 @@
         <v>14.40332680898674</v>
       </c>
       <c r="I24" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139232</v>
       </c>
       <c r="J24" t="n">
         <v>140.9001193425901</v>
@@ -32792,34 +32792,34 @@
         <v>240.8207461973046</v>
       </c>
       <c r="L24" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882327</v>
       </c>
       <c r="M24" t="n">
-        <v>377.8747455745521</v>
+        <v>377.874745574552</v>
       </c>
       <c r="N24" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885125</v>
       </c>
       <c r="O24" t="n">
         <v>354.8307308842432</v>
       </c>
       <c r="P24" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644253</v>
       </c>
       <c r="Q24" t="n">
         <v>190.3698562437557</v>
       </c>
       <c r="R24" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358597</v>
       </c>
       <c r="S24" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895494</v>
       </c>
       <c r="T24" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934971</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.0981153052383293</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,19 +32862,19 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I25" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416359</v>
       </c>
       <c r="J25" t="n">
-        <v>88.39620683811977</v>
+        <v>88.39620683811975</v>
       </c>
       <c r="K25" t="n">
         <v>145.2621220767867</v>
       </c>
       <c r="L25" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600759</v>
       </c>
       <c r="M25" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713641</v>
       </c>
       <c r="N25" t="n">
         <v>191.3299922471481</v>
@@ -32886,19 +32886,19 @@
         <v>151.2180964091995</v>
       </c>
       <c r="Q25" t="n">
-        <v>104.6955717096466</v>
+        <v>104.6955717096465</v>
       </c>
       <c r="R25" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456863</v>
       </c>
       <c r="S25" t="n">
-        <v>21.78931831151801</v>
+        <v>21.789318311518</v>
       </c>
       <c r="T25" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003893</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877319</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>2.787329274442317</v>
       </c>
       <c r="H29" t="n">
-        <v>28.54573593188239</v>
+        <v>28.54573593188238</v>
       </c>
       <c r="I29" t="n">
         <v>107.4585118529375</v>
@@ -33184,31 +33184,31 @@
         <v>236.5710880066988</v>
       </c>
       <c r="K29" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938421</v>
       </c>
       <c r="L29" t="n">
         <v>439.8614644765563</v>
       </c>
       <c r="M29" t="n">
-        <v>489.4306314609199</v>
+        <v>489.4306314609198</v>
       </c>
       <c r="N29" t="n">
         <v>497.3501307619291</v>
       </c>
       <c r="O29" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891932</v>
       </c>
       <c r="P29" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263985</v>
       </c>
       <c r="Q29" t="n">
         <v>301.0002041854329</v>
       </c>
       <c r="R29" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356873</v>
       </c>
       <c r="S29" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135435</v>
       </c>
       <c r="T29" t="n">
         <v>12.20153389887125</v>
@@ -33257,7 +33257,7 @@
         <v>14.40332680898674</v>
       </c>
       <c r="I30" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139232</v>
       </c>
       <c r="J30" t="n">
         <v>140.9001193425901</v>
@@ -33266,34 +33266,34 @@
         <v>240.8207461973046</v>
       </c>
       <c r="L30" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882327</v>
       </c>
       <c r="M30" t="n">
-        <v>377.8747455745521</v>
+        <v>377.874745574552</v>
       </c>
       <c r="N30" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885125</v>
       </c>
       <c r="O30" t="n">
         <v>354.8307308842432</v>
       </c>
       <c r="P30" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644253</v>
       </c>
       <c r="Q30" t="n">
         <v>190.3698562437557</v>
       </c>
       <c r="R30" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358597</v>
       </c>
       <c r="S30" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895494</v>
       </c>
       <c r="T30" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934971</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.0981153052383293</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,19 +33336,19 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I31" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416359</v>
       </c>
       <c r="J31" t="n">
-        <v>88.39620683811977</v>
+        <v>88.39620683811975</v>
       </c>
       <c r="K31" t="n">
         <v>145.2621220767867</v>
       </c>
       <c r="L31" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600759</v>
       </c>
       <c r="M31" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713641</v>
       </c>
       <c r="N31" t="n">
         <v>191.3299922471481</v>
@@ -33360,19 +33360,19 @@
         <v>151.2180964091995</v>
       </c>
       <c r="Q31" t="n">
-        <v>104.6955717096466</v>
+        <v>104.6955717096465</v>
       </c>
       <c r="R31" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456863</v>
       </c>
       <c r="S31" t="n">
-        <v>21.78931831151801</v>
+        <v>21.789318311518</v>
       </c>
       <c r="T31" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003893</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877319</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>2.787329274442317</v>
       </c>
       <c r="H32" t="n">
-        <v>28.54573593188239</v>
+        <v>28.54573593188238</v>
       </c>
       <c r="I32" t="n">
         <v>107.4585118529375</v>
@@ -33421,31 +33421,31 @@
         <v>236.5710880066988</v>
       </c>
       <c r="K32" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938421</v>
       </c>
       <c r="L32" t="n">
         <v>439.8614644765563</v>
       </c>
       <c r="M32" t="n">
-        <v>489.4306314609199</v>
+        <v>489.4306314609198</v>
       </c>
       <c r="N32" t="n">
         <v>497.3501307619291</v>
       </c>
       <c r="O32" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891932</v>
       </c>
       <c r="P32" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263985</v>
       </c>
       <c r="Q32" t="n">
         <v>301.0002041854329</v>
       </c>
       <c r="R32" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356873</v>
       </c>
       <c r="S32" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135435</v>
       </c>
       <c r="T32" t="n">
         <v>12.20153389887125</v>
@@ -33494,7 +33494,7 @@
         <v>14.40332680898674</v>
       </c>
       <c r="I33" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139232</v>
       </c>
       <c r="J33" t="n">
         <v>140.9001193425901</v>
@@ -33503,34 +33503,34 @@
         <v>240.8207461973046</v>
       </c>
       <c r="L33" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882327</v>
       </c>
       <c r="M33" t="n">
-        <v>377.8747455745521</v>
+        <v>377.874745574552</v>
       </c>
       <c r="N33" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885125</v>
       </c>
       <c r="O33" t="n">
         <v>354.8307308842432</v>
       </c>
       <c r="P33" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644253</v>
       </c>
       <c r="Q33" t="n">
         <v>190.3698562437557</v>
       </c>
       <c r="R33" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358597</v>
       </c>
       <c r="S33" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895494</v>
       </c>
       <c r="T33" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934971</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.0981153052383293</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,19 +33573,19 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I34" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416359</v>
       </c>
       <c r="J34" t="n">
-        <v>88.39620683811977</v>
+        <v>88.39620683811975</v>
       </c>
       <c r="K34" t="n">
         <v>145.2621220767867</v>
       </c>
       <c r="L34" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600759</v>
       </c>
       <c r="M34" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713641</v>
       </c>
       <c r="N34" t="n">
         <v>191.3299922471481</v>
@@ -33597,19 +33597,19 @@
         <v>151.2180964091995</v>
       </c>
       <c r="Q34" t="n">
-        <v>104.6955717096466</v>
+        <v>104.6955717096465</v>
       </c>
       <c r="R34" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456863</v>
       </c>
       <c r="S34" t="n">
-        <v>21.78931831151801</v>
+        <v>21.789318311518</v>
       </c>
       <c r="T34" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003893</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877319</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>2.787329274442317</v>
       </c>
       <c r="H35" t="n">
-        <v>28.54573593188239</v>
+        <v>28.54573593188238</v>
       </c>
       <c r="I35" t="n">
         <v>107.4585118529375</v>
@@ -33658,31 +33658,31 @@
         <v>236.5710880066988</v>
       </c>
       <c r="K35" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938421</v>
       </c>
       <c r="L35" t="n">
         <v>439.8614644765563</v>
       </c>
       <c r="M35" t="n">
-        <v>489.4306314609199</v>
+        <v>489.4306314609198</v>
       </c>
       <c r="N35" t="n">
         <v>497.3501307619291</v>
       </c>
       <c r="O35" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891932</v>
       </c>
       <c r="P35" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263985</v>
       </c>
       <c r="Q35" t="n">
         <v>301.0002041854329</v>
       </c>
       <c r="R35" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356873</v>
       </c>
       <c r="S35" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135435</v>
       </c>
       <c r="T35" t="n">
         <v>12.20153389887125</v>
@@ -33731,7 +33731,7 @@
         <v>14.40332680898674</v>
       </c>
       <c r="I36" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139232</v>
       </c>
       <c r="J36" t="n">
         <v>140.9001193425901</v>
@@ -33740,34 +33740,34 @@
         <v>240.8207461973046</v>
       </c>
       <c r="L36" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882327</v>
       </c>
       <c r="M36" t="n">
-        <v>377.8747455745521</v>
+        <v>377.874745574552</v>
       </c>
       <c r="N36" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885125</v>
       </c>
       <c r="O36" t="n">
         <v>354.8307308842432</v>
       </c>
       <c r="P36" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644253</v>
       </c>
       <c r="Q36" t="n">
         <v>190.3698562437557</v>
       </c>
       <c r="R36" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358597</v>
       </c>
       <c r="S36" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895494</v>
       </c>
       <c r="T36" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934971</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.0981153052383293</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,19 +33810,19 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I37" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416359</v>
       </c>
       <c r="J37" t="n">
-        <v>88.39620683811977</v>
+        <v>88.39620683811975</v>
       </c>
       <c r="K37" t="n">
         <v>145.2621220767867</v>
       </c>
       <c r="L37" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600759</v>
       </c>
       <c r="M37" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713641</v>
       </c>
       <c r="N37" t="n">
         <v>191.3299922471481</v>
@@ -33834,19 +33834,19 @@
         <v>151.2180964091995</v>
       </c>
       <c r="Q37" t="n">
-        <v>104.6955717096466</v>
+        <v>104.6955717096465</v>
       </c>
       <c r="R37" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456863</v>
       </c>
       <c r="S37" t="n">
-        <v>21.78931831151801</v>
+        <v>21.789318311518</v>
       </c>
       <c r="T37" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003893</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877319</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>2.787329274442317</v>
       </c>
       <c r="H38" t="n">
-        <v>28.54573593188239</v>
+        <v>28.54573593188238</v>
       </c>
       <c r="I38" t="n">
         <v>107.4585118529375</v>
@@ -33895,31 +33895,31 @@
         <v>236.5710880066988</v>
       </c>
       <c r="K38" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938421</v>
       </c>
       <c r="L38" t="n">
         <v>439.8614644765563</v>
       </c>
       <c r="M38" t="n">
-        <v>489.4306314609199</v>
+        <v>489.4306314609198</v>
       </c>
       <c r="N38" t="n">
         <v>497.3501307619291</v>
       </c>
       <c r="O38" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891932</v>
       </c>
       <c r="P38" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263985</v>
       </c>
       <c r="Q38" t="n">
         <v>301.0002041854329</v>
       </c>
       <c r="R38" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356873</v>
       </c>
       <c r="S38" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135435</v>
       </c>
       <c r="T38" t="n">
         <v>12.20153389887125</v>
@@ -33968,7 +33968,7 @@
         <v>14.40332680898674</v>
       </c>
       <c r="I39" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139232</v>
       </c>
       <c r="J39" t="n">
         <v>140.9001193425901</v>
@@ -33977,34 +33977,34 @@
         <v>240.8207461973046</v>
       </c>
       <c r="L39" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882327</v>
       </c>
       <c r="M39" t="n">
-        <v>377.8747455745521</v>
+        <v>377.874745574552</v>
       </c>
       <c r="N39" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885125</v>
       </c>
       <c r="O39" t="n">
         <v>354.8307308842432</v>
       </c>
       <c r="P39" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644253</v>
       </c>
       <c r="Q39" t="n">
         <v>190.3698562437557</v>
       </c>
       <c r="R39" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358597</v>
       </c>
       <c r="S39" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895494</v>
       </c>
       <c r="T39" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934971</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.0981153052383293</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,19 +34047,19 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I40" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416359</v>
       </c>
       <c r="J40" t="n">
-        <v>88.39620683811977</v>
+        <v>88.39620683811975</v>
       </c>
       <c r="K40" t="n">
         <v>145.2621220767867</v>
       </c>
       <c r="L40" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600759</v>
       </c>
       <c r="M40" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713641</v>
       </c>
       <c r="N40" t="n">
         <v>191.3299922471481</v>
@@ -34071,19 +34071,19 @@
         <v>151.2180964091995</v>
       </c>
       <c r="Q40" t="n">
-        <v>104.6955717096466</v>
+        <v>104.6955717096465</v>
       </c>
       <c r="R40" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456863</v>
       </c>
       <c r="S40" t="n">
-        <v>21.78931831151801</v>
+        <v>21.789318311518</v>
       </c>
       <c r="T40" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003893</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877319</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>2.787329274442317</v>
       </c>
       <c r="H41" t="n">
-        <v>28.54573593188239</v>
+        <v>28.54573593188238</v>
       </c>
       <c r="I41" t="n">
         <v>107.4585118529375</v>
@@ -34132,31 +34132,31 @@
         <v>236.5710880066988</v>
       </c>
       <c r="K41" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938421</v>
       </c>
       <c r="L41" t="n">
         <v>439.8614644765563</v>
       </c>
       <c r="M41" t="n">
-        <v>489.4306314609199</v>
+        <v>489.4306314609198</v>
       </c>
       <c r="N41" t="n">
         <v>497.3501307619291</v>
       </c>
       <c r="O41" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891932</v>
       </c>
       <c r="P41" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263985</v>
       </c>
       <c r="Q41" t="n">
         <v>301.0002041854329</v>
       </c>
       <c r="R41" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356873</v>
       </c>
       <c r="S41" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135435</v>
       </c>
       <c r="T41" t="n">
         <v>12.20153389887125</v>
@@ -34205,7 +34205,7 @@
         <v>14.40332680898674</v>
       </c>
       <c r="I42" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139232</v>
       </c>
       <c r="J42" t="n">
         <v>140.9001193425901</v>
@@ -34214,34 +34214,34 @@
         <v>240.8207461973046</v>
       </c>
       <c r="L42" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882327</v>
       </c>
       <c r="M42" t="n">
-        <v>377.8747455745521</v>
+        <v>377.874745574552</v>
       </c>
       <c r="N42" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885125</v>
       </c>
       <c r="O42" t="n">
         <v>354.8307308842432</v>
       </c>
       <c r="P42" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644253</v>
       </c>
       <c r="Q42" t="n">
         <v>190.3698562437557</v>
       </c>
       <c r="R42" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358597</v>
       </c>
       <c r="S42" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895494</v>
       </c>
       <c r="T42" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934971</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.0981153052383293</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,19 +34284,19 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I43" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416359</v>
       </c>
       <c r="J43" t="n">
-        <v>88.39620683811977</v>
+        <v>88.39620683811975</v>
       </c>
       <c r="K43" t="n">
         <v>145.2621220767867</v>
       </c>
       <c r="L43" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600759</v>
       </c>
       <c r="M43" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713641</v>
       </c>
       <c r="N43" t="n">
         <v>191.3299922471481</v>
@@ -34308,19 +34308,19 @@
         <v>151.2180964091995</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.6955717096466</v>
+        <v>104.6955717096465</v>
       </c>
       <c r="R43" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456863</v>
       </c>
       <c r="S43" t="n">
-        <v>21.78931831151801</v>
+        <v>21.789318311518</v>
       </c>
       <c r="T43" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003893</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877319</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>2.787329274442317</v>
       </c>
       <c r="H44" t="n">
-        <v>28.54573593188239</v>
+        <v>28.54573593188238</v>
       </c>
       <c r="I44" t="n">
         <v>107.4585118529375</v>
@@ -34369,31 +34369,31 @@
         <v>236.5710880066988</v>
       </c>
       <c r="K44" t="n">
-        <v>354.5587361938422</v>
+        <v>354.5587361938421</v>
       </c>
       <c r="L44" t="n">
         <v>439.8614644765563</v>
       </c>
       <c r="M44" t="n">
-        <v>489.4306314609199</v>
+        <v>489.4306314609198</v>
       </c>
       <c r="N44" t="n">
         <v>497.3501307619291</v>
       </c>
       <c r="O44" t="n">
-        <v>469.6336252891933</v>
+        <v>469.6336252891932</v>
       </c>
       <c r="P44" t="n">
-        <v>400.8214338263986</v>
+        <v>400.8214338263985</v>
       </c>
       <c r="Q44" t="n">
         <v>301.0002041854329</v>
       </c>
       <c r="R44" t="n">
-        <v>175.0895725356874</v>
+        <v>175.0895725356873</v>
       </c>
       <c r="S44" t="n">
-        <v>63.51626584135436</v>
+        <v>63.51626584135435</v>
       </c>
       <c r="T44" t="n">
         <v>12.20153389887125</v>
@@ -34442,7 +34442,7 @@
         <v>14.40332680898674</v>
       </c>
       <c r="I45" t="n">
-        <v>51.34700974139233</v>
+        <v>51.34700974139232</v>
       </c>
       <c r="J45" t="n">
         <v>140.9001193425901</v>
@@ -34451,34 +34451,34 @@
         <v>240.8207461973046</v>
       </c>
       <c r="L45" t="n">
-        <v>323.8132123882328</v>
+        <v>323.8132123882327</v>
       </c>
       <c r="M45" t="n">
-        <v>377.8747455745521</v>
+        <v>377.874745574552</v>
       </c>
       <c r="N45" t="n">
-        <v>387.8759656885126</v>
+        <v>387.8759656885125</v>
       </c>
       <c r="O45" t="n">
         <v>354.8307308842432</v>
       </c>
       <c r="P45" t="n">
-        <v>284.7829439644254</v>
+        <v>284.7829439644253</v>
       </c>
       <c r="Q45" t="n">
         <v>190.3698562437557</v>
       </c>
       <c r="R45" t="n">
-        <v>92.59468406358599</v>
+        <v>92.59468406358597</v>
       </c>
       <c r="S45" t="n">
-        <v>27.70122117895495</v>
+        <v>27.70122117895494</v>
       </c>
       <c r="T45" t="n">
-        <v>6.011197700934972</v>
+        <v>6.011197700934971</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09811530523832931</v>
+        <v>0.0981153052383293</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,19 +34521,19 @@
         <v>11.11630323874003</v>
       </c>
       <c r="I46" t="n">
-        <v>37.5999295641636</v>
+        <v>37.59992956416359</v>
       </c>
       <c r="J46" t="n">
-        <v>88.39620683811977</v>
+        <v>88.39620683811975</v>
       </c>
       <c r="K46" t="n">
         <v>145.2621220767867</v>
       </c>
       <c r="L46" t="n">
-        <v>185.885504260076</v>
+        <v>185.8855042600759</v>
       </c>
       <c r="M46" t="n">
-        <v>195.9902011713642</v>
+        <v>195.9902011713641</v>
       </c>
       <c r="N46" t="n">
         <v>191.3299922471481</v>
@@ -34545,19 +34545,19 @@
         <v>151.2180964091995</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.6955717096466</v>
+        <v>104.6955717096465</v>
       </c>
       <c r="R46" t="n">
-        <v>56.21803253456864</v>
+        <v>56.21803253456863</v>
       </c>
       <c r="S46" t="n">
-        <v>21.78931831151801</v>
+        <v>21.789318311518</v>
       </c>
       <c r="T46" t="n">
-        <v>5.342190718003894</v>
+        <v>5.342190718003893</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0681981793787732</v>
+        <v>0.06819817937877319</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>212.2344864397988</v>
       </c>
       <c r="P12" t="n">
-        <v>150.8085365500951</v>
+        <v>351.7307834215733</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.3103290292136</v>
+        <v>50.3880821577342</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>98.62902260750356</v>
       </c>
       <c r="K13" t="n">
         <v>122.9926302509039</v>
       </c>
       <c r="L13" t="n">
-        <v>317.0675254064487</v>
+        <v>213.4755295203921</v>
       </c>
       <c r="M13" t="n">
-        <v>261.4751060713168</v>
+        <v>266.4380793498682</v>
       </c>
       <c r="N13" t="n">
         <v>235.4621646263767</v>
@@ -35583,7 +35583,7 @@
         <v>201.3093434109005</v>
       </c>
       <c r="P13" t="n">
-        <v>252.0886515601495</v>
+        <v>252.0886515601496</v>
       </c>
       <c r="Q13" t="n">
         <v>18.53352845795217</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.52518348001254</v>
+        <v>55.52518348001249</v>
       </c>
       <c r="K14" t="n">
-        <v>134.4688851488616</v>
+        <v>134.4688851488615</v>
       </c>
       <c r="L14" t="n">
-        <v>204.0950495065691</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="M14" t="n">
-        <v>259.0843982336471</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="N14" t="n">
-        <v>267.9370671653382</v>
+        <v>267.9370671653381</v>
       </c>
       <c r="O14" t="n">
-        <v>423.7530085825231</v>
+        <v>239.5354138675065</v>
       </c>
       <c r="P14" t="n">
-        <v>491.3871462426117</v>
+        <v>169.588438071129</v>
       </c>
       <c r="Q14" t="n">
-        <v>291.0095049708881</v>
+        <v>172.9828622579406</v>
       </c>
       <c r="R14" t="n">
-        <v>25.22045459453767</v>
+        <v>25.22045459453764</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.06249267592341</v>
+        <v>14.06249267592338</v>
       </c>
       <c r="K15" t="n">
         <v>102.9793072229456</v>
       </c>
       <c r="L15" t="n">
-        <v>185.2588326083586</v>
+        <v>185.2588326083585</v>
       </c>
       <c r="M15" t="n">
-        <v>543.6111966698314</v>
+        <v>235.7407116525337</v>
       </c>
       <c r="N15" t="n">
-        <v>256.5342536051793</v>
+        <v>341.0914820117805</v>
       </c>
       <c r="O15" t="n">
-        <v>543.6111966698314</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="P15" t="n">
-        <v>245.958048579336</v>
+        <v>469.2713051900323</v>
       </c>
       <c r="Q15" t="n">
-        <v>260.4653698935833</v>
+        <v>260.4653698935832</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>122.9926302509039</v>
+        <v>226.5846261369605</v>
       </c>
       <c r="L16" t="n">
-        <v>213.4755295203921</v>
+        <v>239.3765574585022</v>
       </c>
       <c r="M16" t="n">
-        <v>235.5740781332048</v>
+        <v>235.5740781332047</v>
       </c>
       <c r="N16" t="n">
-        <v>339.0541605124332</v>
+        <v>339.0541605124333</v>
       </c>
       <c r="O16" t="n">
-        <v>227.2103713490118</v>
+        <v>201.3093434109005</v>
       </c>
       <c r="P16" t="n">
         <v>148.496655674093</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.1255243440087</v>
+        <v>18.53352845795216</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.52518348001254</v>
+        <v>55.52518348001249</v>
       </c>
       <c r="K17" t="n">
-        <v>134.4688851488616</v>
+        <v>134.4688851488615</v>
       </c>
       <c r="L17" t="n">
-        <v>204.0950495065691</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="M17" t="n">
-        <v>443.3019929486636</v>
+        <v>259.084398233647</v>
       </c>
       <c r="N17" t="n">
-        <v>267.9370671653382</v>
+        <v>267.9370671653381</v>
       </c>
       <c r="O17" t="n">
-        <v>239.5354138675066</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="P17" t="n">
-        <v>491.3871462426117</v>
+        <v>244.3278016519456</v>
       </c>
       <c r="Q17" t="n">
-        <v>291.0095049708881</v>
+        <v>78.69451431098346</v>
       </c>
       <c r="R17" t="n">
-        <v>25.22045459453767</v>
+        <v>25.22045459453764</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.06249267592341</v>
+        <v>14.06249267592338</v>
       </c>
       <c r="K18" t="n">
         <v>102.9793072229456</v>
       </c>
       <c r="L18" t="n">
-        <v>185.2588326083586</v>
+        <v>185.2588326083585</v>
       </c>
       <c r="M18" t="n">
-        <v>235.7407116525338</v>
+        <v>235.7407116525337</v>
       </c>
       <c r="N18" t="n">
-        <v>341.0914820117804</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="O18" t="n">
-        <v>543.6111966698314</v>
+        <v>341.0914820117805</v>
       </c>
       <c r="P18" t="n">
         <v>469.2713051900323</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.4653698935833</v>
+        <v>260.4653698935832</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>213.4755295203921</v>
       </c>
       <c r="M19" t="n">
-        <v>235.5740781332048</v>
+        <v>235.5740781332047</v>
       </c>
       <c r="N19" t="n">
         <v>235.4621646263767</v>
@@ -36060,7 +36060,7 @@
         <v>148.496655674093</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.53352845795217</v>
+        <v>18.53352845795216</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.52518348001254</v>
+        <v>190.4047206136051</v>
       </c>
       <c r="K20" t="n">
-        <v>134.4688851488616</v>
+        <v>458.6142977200263</v>
       </c>
       <c r="L20" t="n">
-        <v>204.0950495065691</v>
+        <v>204.095049506569</v>
       </c>
       <c r="M20" t="n">
-        <v>259.0843982336471</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="N20" t="n">
-        <v>267.9370671653382</v>
+        <v>267.9370671653381</v>
       </c>
       <c r="O20" t="n">
-        <v>423.7530085825231</v>
+        <v>239.5354138675065</v>
       </c>
       <c r="P20" t="n">
-        <v>491.3871462426117</v>
+        <v>169.588438071129</v>
       </c>
       <c r="Q20" t="n">
-        <v>291.0095049708881</v>
+        <v>78.69451431098346</v>
       </c>
       <c r="R20" t="n">
-        <v>25.22045459453767</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.06249267592341</v>
+        <v>14.06249267592338</v>
       </c>
       <c r="K21" t="n">
         <v>102.9793072229456</v>
       </c>
       <c r="L21" t="n">
-        <v>185.2588326083586</v>
+        <v>185.2588326083585</v>
       </c>
       <c r="M21" t="n">
-        <v>235.7407116525338</v>
+        <v>235.7407116525337</v>
       </c>
       <c r="N21" t="n">
-        <v>341.0914820117804</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="O21" t="n">
-        <v>543.6111966698314</v>
+        <v>543.6111966698313</v>
       </c>
       <c r="P21" t="n">
-        <v>469.2713051900323</v>
+        <v>266.7515905319813</v>
       </c>
       <c r="Q21" t="n">
-        <v>260.4653698935833</v>
+        <v>260.4653698935832</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>213.4755295203921</v>
       </c>
       <c r="M22" t="n">
-        <v>235.5740781332048</v>
+        <v>235.5740781332047</v>
       </c>
       <c r="N22" t="n">
         <v>235.4621646263767</v>
@@ -36297,7 +36297,7 @@
         <v>148.496655674093</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.53352845795217</v>
+        <v>18.53352845795216</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.52518348001254</v>
+        <v>55.52518348001249</v>
       </c>
       <c r="K23" t="n">
-        <v>134.4688851488616</v>
+        <v>300.8119556571046</v>
       </c>
       <c r="L23" t="n">
-        <v>204.0950495065691</v>
+        <v>204.095049506569</v>
       </c>
       <c r="M23" t="n">
-        <v>259.0843982336471</v>
+        <v>549.4256113965079</v>
       </c>
       <c r="N23" t="n">
-        <v>267.9370671653382</v>
+        <v>267.9370671653381</v>
       </c>
       <c r="O23" t="n">
-        <v>446.7757416416876</v>
+        <v>549.4256113965079</v>
       </c>
       <c r="P23" t="n">
-        <v>491.3871462426117</v>
+        <v>169.588438071129</v>
       </c>
       <c r="Q23" t="n">
-        <v>291.0095049708881</v>
+        <v>78.69451431098346</v>
       </c>
       <c r="R23" t="n">
-        <v>25.22045459453767</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.06249267592341</v>
+        <v>140.1535280163322</v>
       </c>
       <c r="K24" t="n">
         <v>102.9793072229456</v>
       </c>
       <c r="L24" t="n">
-        <v>185.2588326083586</v>
+        <v>549.4256113965079</v>
       </c>
       <c r="M24" t="n">
-        <v>235.7407116525338</v>
+        <v>394.5168569556224</v>
       </c>
       <c r="N24" t="n">
-        <v>358.2998003442685</v>
+        <v>256.5342536051792</v>
       </c>
       <c r="O24" t="n">
-        <v>549.4256113965082</v>
+        <v>212.2344864397987</v>
       </c>
       <c r="P24" t="n">
         <v>469.2713051900323</v>
       </c>
       <c r="Q24" t="n">
-        <v>260.4653698935833</v>
+        <v>50.38808215773415</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>213.4755295203921</v>
       </c>
       <c r="M25" t="n">
-        <v>235.5740781332048</v>
+        <v>235.5740781332047</v>
       </c>
       <c r="N25" t="n">
         <v>235.4621646263767</v>
@@ -36534,7 +36534,7 @@
         <v>148.496655674093</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.53352845795217</v>
+        <v>18.53352845795216</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.52518348001254</v>
+        <v>224.6217986520863</v>
       </c>
       <c r="K26" t="n">
-        <v>134.4688851488616</v>
+        <v>458.6142977200263</v>
       </c>
       <c r="L26" t="n">
-        <v>609.4432667651283</v>
+        <v>621.7562640570195</v>
       </c>
       <c r="M26" t="n">
         <v>708.5979317264796</v>
       </c>
       <c r="N26" t="n">
-        <v>705.2839915773224</v>
+        <v>437.2644117966354</v>
       </c>
       <c r="O26" t="n">
         <v>620.3355951302519</v>
@@ -36613,10 +36613,10 @@
         <v>491.3871462426117</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.0095049708881</v>
+        <v>78.69451431098346</v>
       </c>
       <c r="R26" t="n">
-        <v>25.22045459453767</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.06249267592341</v>
+        <v>140.1535280163322</v>
       </c>
       <c r="K27" t="n">
-        <v>102.9793072229456</v>
+        <v>367.4445442355242</v>
       </c>
       <c r="L27" t="n">
         <v>185.2588326083586</v>
       </c>
       <c r="M27" t="n">
-        <v>235.7407116525338</v>
+        <v>527.7275623061637</v>
       </c>
       <c r="N27" t="n">
-        <v>706.0946630386833</v>
+        <v>735.8766279487328</v>
       </c>
       <c r="O27" t="n">
-        <v>606.0968057165283</v>
+        <v>212.2344864397988</v>
       </c>
       <c r="P27" t="n">
-        <v>469.2713051900323</v>
+        <v>150.8085365500951</v>
       </c>
       <c r="Q27" t="n">
         <v>260.4653698935833</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.34572324611072</v>
+        <v>74.34572324611081</v>
       </c>
       <c r="K28" t="n">
         <v>202.3013267755677</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.52518348001254</v>
+        <v>55.52518348001249</v>
       </c>
       <c r="K29" t="n">
         <v>458.6142977200263</v>
       </c>
       <c r="L29" t="n">
-        <v>285.2978541939636</v>
+        <v>621.7562640570195</v>
       </c>
       <c r="M29" t="n">
-        <v>708.5979317264796</v>
+        <v>708.5979317264795</v>
       </c>
       <c r="N29" t="n">
-        <v>705.2839915773224</v>
+        <v>705.2839915773222</v>
       </c>
       <c r="O29" t="n">
-        <v>620.3355951302519</v>
+        <v>620.3355951302518</v>
       </c>
       <c r="P29" t="n">
-        <v>491.3871462426117</v>
+        <v>367.243727039461</v>
       </c>
       <c r="Q29" t="n">
-        <v>291.0095049708881</v>
+        <v>78.69451431098346</v>
       </c>
       <c r="R29" t="n">
-        <v>25.22045459453767</v>
+        <v>25.22045459453764</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.06249267592341</v>
+        <v>140.1535280163322</v>
       </c>
       <c r="K30" t="n">
-        <v>102.9793072229456</v>
+        <v>354.6059368427709</v>
       </c>
       <c r="L30" t="n">
-        <v>185.2588326083586</v>
+        <v>185.2588326083585</v>
       </c>
       <c r="M30" t="n">
-        <v>235.7407116525338</v>
+        <v>701.4457754025336</v>
       </c>
       <c r="N30" t="n">
-        <v>706.0946630386833</v>
+        <v>256.5342536051792</v>
       </c>
       <c r="O30" t="n">
-        <v>606.0968057165283</v>
+        <v>212.2344864397987</v>
       </c>
       <c r="P30" t="n">
         <v>469.2713051900323</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.4653698935833</v>
+        <v>260.4653698935832</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.34572324611081</v>
+        <v>74.34572324611079</v>
       </c>
       <c r="K31" t="n">
-        <v>202.3013267755676</v>
+        <v>202.3013267755677</v>
       </c>
       <c r="L31" t="n">
-        <v>292.784226045056</v>
+        <v>292.7842260450559</v>
       </c>
       <c r="M31" t="n">
-        <v>314.8827746578686</v>
+        <v>314.8827746578685</v>
       </c>
       <c r="N31" t="n">
         <v>314.7708611510405</v>
@@ -37008,7 +37008,7 @@
         <v>227.8053521987569</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.84222498261599</v>
+        <v>97.84222498261597</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.52518348001254</v>
+        <v>55.52518348001249</v>
       </c>
       <c r="K32" t="n">
-        <v>134.4688851488616</v>
+        <v>134.4688851488615</v>
       </c>
       <c r="L32" t="n">
-        <v>609.4432667651288</v>
+        <v>609.4432667651295</v>
       </c>
       <c r="M32" t="n">
-        <v>708.5979317264796</v>
+        <v>708.5979317264795</v>
       </c>
       <c r="N32" t="n">
-        <v>705.2839915773224</v>
+        <v>705.2839915773222</v>
       </c>
       <c r="O32" t="n">
-        <v>620.3355951302519</v>
+        <v>620.3355951302518</v>
       </c>
       <c r="P32" t="n">
-        <v>491.3871462426117</v>
+        <v>491.3871462426116</v>
       </c>
       <c r="Q32" t="n">
         <v>291.0095049708881</v>
       </c>
       <c r="R32" t="n">
-        <v>25.22045459453767</v>
+        <v>25.22045459453764</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.06249267592341</v>
+        <v>14.06249267592338</v>
       </c>
       <c r="K33" t="n">
-        <v>102.9793072229456</v>
+        <v>367.4445442355242</v>
       </c>
       <c r="L33" t="n">
-        <v>185.2588326083586</v>
+        <v>185.2588326083585</v>
       </c>
       <c r="M33" t="n">
-        <v>235.7407116525338</v>
+        <v>701.4457754025336</v>
       </c>
       <c r="N33" t="n">
-        <v>706.0946630386833</v>
+        <v>504.4644186518912</v>
       </c>
       <c r="O33" t="n">
         <v>606.0968057165283</v>
       </c>
       <c r="P33" t="n">
-        <v>469.2713051900323</v>
+        <v>150.8085365500951</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.4653698935833</v>
+        <v>50.38808215773415</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.34572324611079</v>
+        <v>74.34572324611082</v>
       </c>
       <c r="K34" t="n">
         <v>202.3013267755677</v>
       </c>
       <c r="L34" t="n">
-        <v>292.784226045056</v>
+        <v>292.7842260450559</v>
       </c>
       <c r="M34" t="n">
-        <v>314.8827746578685</v>
+        <v>314.8827746578681</v>
       </c>
       <c r="N34" t="n">
         <v>314.7708611510405</v>
@@ -37245,7 +37245,7 @@
         <v>227.8053521987569</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.84222498261597</v>
+        <v>97.842224982616</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.52518348001254</v>
+        <v>224.6217986520863</v>
       </c>
       <c r="K35" t="n">
-        <v>134.4688851488616</v>
+        <v>458.6142977200263</v>
       </c>
       <c r="L35" t="n">
-        <v>204.0950495065691</v>
+        <v>204.095049506569</v>
       </c>
       <c r="M35" t="n">
-        <v>259.0843982336471</v>
+        <v>343.7677367823002</v>
       </c>
       <c r="N35" t="n">
-        <v>498.8432706912089</v>
+        <v>267.9370671653381</v>
       </c>
       <c r="O35" t="n">
-        <v>620.3355951302519</v>
+        <v>620.3355951302518</v>
       </c>
       <c r="P35" t="n">
-        <v>491.3871462426117</v>
+        <v>169.588438071129</v>
       </c>
       <c r="Q35" t="n">
         <v>291.0095049708881</v>
       </c>
       <c r="R35" t="n">
-        <v>25.22045459453767</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.06249267592341</v>
+        <v>140.1535280163322</v>
       </c>
       <c r="K36" t="n">
-        <v>102.9793072229456</v>
+        <v>168.3151772249317</v>
       </c>
       <c r="L36" t="n">
-        <v>185.2588326083586</v>
+        <v>556.0991779118177</v>
       </c>
       <c r="M36" t="n">
-        <v>290.2614478752469</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="N36" t="n">
-        <v>651.5739268159701</v>
+        <v>256.5342536051792</v>
       </c>
       <c r="O36" t="n">
         <v>606.0968057165283</v>
       </c>
       <c r="P36" t="n">
-        <v>469.2713051900323</v>
+        <v>150.8085365500951</v>
       </c>
       <c r="Q36" t="n">
-        <v>260.4653698935833</v>
+        <v>50.38808215773415</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>213.4755295203921</v>
       </c>
       <c r="M37" t="n">
-        <v>235.5740781332048</v>
+        <v>235.5740781332047</v>
       </c>
       <c r="N37" t="n">
         <v>235.4621646263767</v>
@@ -37482,7 +37482,7 @@
         <v>148.496655674093</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.53352845795217</v>
+        <v>18.53352845795216</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.52518348001254</v>
+        <v>131.4773036780032</v>
       </c>
       <c r="K38" t="n">
-        <v>134.4688851488616</v>
+        <v>134.4688851488615</v>
       </c>
       <c r="L38" t="n">
-        <v>204.0950495065691</v>
+        <v>204.095049506569</v>
       </c>
       <c r="M38" t="n">
-        <v>259.0843982336471</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="N38" t="n">
-        <v>498.8432706912089</v>
+        <v>267.9370671653381</v>
       </c>
       <c r="O38" t="n">
-        <v>620.3355951302519</v>
+        <v>620.3355951302518</v>
       </c>
       <c r="P38" t="n">
-        <v>491.3871462426117</v>
+        <v>491.3871462426116</v>
       </c>
       <c r="Q38" t="n">
-        <v>291.0095049708881</v>
+        <v>78.69451431098346</v>
       </c>
       <c r="R38" t="n">
-        <v>25.22045459453767</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.06249267592341</v>
+        <v>14.06249267592338</v>
       </c>
       <c r="K39" t="n">
-        <v>102.9793072229456</v>
+        <v>367.4445442355242</v>
       </c>
       <c r="L39" t="n">
-        <v>185.2588326083586</v>
+        <v>483.0608462416341</v>
       </c>
       <c r="M39" t="n">
-        <v>290.2614478752469</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="N39" t="n">
-        <v>651.5739268159701</v>
+        <v>256.5342536051792</v>
       </c>
       <c r="O39" t="n">
         <v>606.0968057165283</v>
       </c>
       <c r="P39" t="n">
-        <v>469.2713051900323</v>
+        <v>150.8085365500951</v>
       </c>
       <c r="Q39" t="n">
-        <v>260.4653698935833</v>
+        <v>50.38808215773415</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>213.4755295203921</v>
       </c>
       <c r="M40" t="n">
-        <v>235.5740781332048</v>
+        <v>235.5740781332047</v>
       </c>
       <c r="N40" t="n">
         <v>235.4621646263767</v>
@@ -37719,7 +37719,7 @@
         <v>148.496655674093</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.53352845795217</v>
+        <v>18.53352845795216</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.52518348001254</v>
+        <v>55.52518348001249</v>
       </c>
       <c r="K41" t="n">
-        <v>134.4688851488616</v>
+        <v>134.4688851488615</v>
       </c>
       <c r="L41" t="n">
-        <v>204.0950495065691</v>
+        <v>204.095049506569</v>
       </c>
       <c r="M41" t="n">
-        <v>259.0843982336471</v>
+        <v>489.9906017595171</v>
       </c>
       <c r="N41" t="n">
-        <v>651.5739268159701</v>
+        <v>267.9370671653381</v>
       </c>
       <c r="O41" t="n">
-        <v>467.6049390054907</v>
+        <v>620.3355951302518</v>
       </c>
       <c r="P41" t="n">
-        <v>491.3871462426117</v>
+        <v>491.3871462426116</v>
       </c>
       <c r="Q41" t="n">
         <v>291.0095049708881</v>
       </c>
       <c r="R41" t="n">
-        <v>25.22045459453767</v>
+        <v>25.22045459453764</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>14.06249267592341</v>
+        <v>14.06249267592338</v>
       </c>
       <c r="K42" t="n">
-        <v>102.9793072229456</v>
+        <v>367.4445442355242</v>
       </c>
       <c r="L42" t="n">
-        <v>185.2588326083586</v>
+        <v>185.2588326083585</v>
       </c>
       <c r="M42" t="n">
-        <v>290.2614478752469</v>
+        <v>630.9131718093086</v>
       </c>
       <c r="N42" t="n">
-        <v>651.5739268159701</v>
+        <v>256.5342536051792</v>
       </c>
       <c r="O42" t="n">
         <v>606.0968057165283</v>
@@ -37877,7 +37877,7 @@
         <v>469.2713051900323</v>
       </c>
       <c r="Q42" t="n">
-        <v>260.4653698935833</v>
+        <v>50.38808215773415</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>213.4755295203921</v>
       </c>
       <c r="M43" t="n">
-        <v>235.5740781332048</v>
+        <v>235.5740781332047</v>
       </c>
       <c r="N43" t="n">
         <v>235.4621646263767</v>
@@ -37956,7 +37956,7 @@
         <v>148.496655674093</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.53352845795217</v>
+        <v>18.53352845795216</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.52518348001254</v>
+        <v>55.52518348001249</v>
       </c>
       <c r="K44" t="n">
-        <v>134.4688851488616</v>
+        <v>134.4688851488615</v>
       </c>
       <c r="L44" t="n">
-        <v>204.0950495065691</v>
+        <v>204.095049506569</v>
       </c>
       <c r="M44" t="n">
-        <v>259.0843982336471</v>
+        <v>259.084398233647</v>
       </c>
       <c r="N44" t="n">
-        <v>498.8432706912099</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="O44" t="n">
-        <v>620.3355951302519</v>
+        <v>620.3355951302518</v>
       </c>
       <c r="P44" t="n">
-        <v>491.3871462426117</v>
+        <v>491.3871462426116</v>
       </c>
       <c r="Q44" t="n">
-        <v>291.0095049708881</v>
+        <v>138.2788488461274</v>
       </c>
       <c r="R44" t="n">
-        <v>25.22045459453767</v>
+        <v>25.22045459453764</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.06249267592341</v>
+        <v>140.1535280163322</v>
       </c>
       <c r="K45" t="n">
-        <v>102.9793072229456</v>
+        <v>367.4445442355242</v>
       </c>
       <c r="L45" t="n">
-        <v>185.2588326083586</v>
+        <v>185.2588326083585</v>
       </c>
       <c r="M45" t="n">
-        <v>290.2614478752467</v>
+        <v>651.5739268159701</v>
       </c>
       <c r="N45" t="n">
-        <v>651.5739268159704</v>
+        <v>256.5342536051792</v>
       </c>
       <c r="O45" t="n">
         <v>606.0968057165283</v>
       </c>
       <c r="P45" t="n">
-        <v>469.2713051900323</v>
+        <v>150.8085365500951</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.4653698935833</v>
+        <v>222.0990604506011</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>213.4755295203921</v>
       </c>
       <c r="M46" t="n">
-        <v>235.5740781332048</v>
+        <v>235.5740781332047</v>
       </c>
       <c r="N46" t="n">
         <v>235.4621646263767</v>
@@ -38193,7 +38193,7 @@
         <v>148.496655674093</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.53352845795217</v>
+        <v>18.53352845795216</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
